--- a/Code/Results/Cases/Case_1_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_50/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.635798572065312</v>
+        <v>1.635798572065397</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.7648929081075266</v>
+        <v>0.7648929081073561</v>
       </c>
       <c r="E2">
-        <v>1.492462155628985</v>
+        <v>1.492462155628914</v>
       </c>
       <c r="F2">
-        <v>7.570195416911275</v>
+        <v>7.570195416911218</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5874928500922323</v>
+        <v>0.5874928500922252</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>3.472358772207798</v>
       </c>
       <c r="L2">
-        <v>3.561543962089715</v>
+        <v>3.561543962089701</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.399216622417157</v>
+        <v>1.399216622417612</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.6274098429416313</v>
+        <v>0.6274098429411765</v>
       </c>
       <c r="E3">
-        <v>1.264050539714674</v>
+        <v>1.264050539714688</v>
       </c>
       <c r="F3">
-        <v>6.2660398098337</v>
+        <v>6.266039809833757</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5047702474739779</v>
+        <v>0.5047702474740063</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.259752328912555</v>
+        <v>1.259752328912668</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.5508687286335032</v>
+        <v>0.5508687286334748</v>
       </c>
       <c r="E4">
-        <v>1.131693848249995</v>
+        <v>1.131693848249967</v>
       </c>
       <c r="F4">
-        <v>5.545033974476667</v>
+        <v>5.54503397447661</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.45622570170638</v>
+        <v>0.4562257017063516</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>2.616691687642117</v>
       </c>
       <c r="L4">
-        <v>2.695161970194462</v>
+        <v>2.695161970194434</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.204053217042201</v>
+        <v>1.20405321704223</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.5211787742458398</v>
+        <v>0.5211787742457261</v>
       </c>
       <c r="E5">
         <v>1.079227808967516</v>
       </c>
       <c r="F5">
-        <v>5.266645524909592</v>
+        <v>5.266645524909507</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,16 +547,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4368581578409447</v>
+        <v>0.4368581578409234</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.492147629268189</v>
+        <v>2.492147629268231</v>
       </c>
       <c r="L5">
-        <v>2.568527847935542</v>
+        <v>2.56852784793557</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.194864998216161</v>
+        <v>1.194864998216076</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.5163281103731663</v>
+        <v>0.516328110373081</v>
       </c>
       <c r="E6">
-        <v>1.070592530303301</v>
+        <v>1.070592530303244</v>
       </c>
       <c r="F6">
-        <v>5.221241010714976</v>
+        <v>5.221241010715005</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.471650380748457</v>
+        <v>2.471650380748471</v>
       </c>
       <c r="L6">
-        <v>2.547674780891981</v>
+        <v>2.547674780891995</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.258996927297602</v>
+        <v>1.258996927297517</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.550462769477889</v>
+        <v>0.5504627694776332</v>
       </c>
       <c r="E7">
-        <v>1.130980885060666</v>
+        <v>1.130980885060652</v>
       </c>
       <c r="F7">
-        <v>5.541222191317416</v>
+        <v>5.54122219131736</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4559629906891445</v>
+        <v>0.4559629906891374</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.614999208310351</v>
+        <v>2.61499920831038</v>
       </c>
       <c r="L7">
-        <v>2.693441927350122</v>
+        <v>2.69344192735015</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.552795331370021</v>
+        <v>1.552795331370078</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.7155129345300395</v>
+        <v>0.7155129345302385</v>
       </c>
       <c r="E8">
-        <v>1.411701995678584</v>
+        <v>1.411701995678627</v>
       </c>
       <c r="F8">
-        <v>7.100682263460641</v>
+        <v>7.100682263460726</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.558396298427617</v>
+        <v>0.5583962984276383</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.281046768667494</v>
+        <v>3.281046768667522</v>
       </c>
       <c r="L8">
-        <v>3.368424170322967</v>
+        <v>3.368424170322996</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.197378280760631</v>
+        <v>2.197378280760802</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.137011603832804</v>
+        <v>1.137011603833002</v>
       </c>
       <c r="E9">
-        <v>2.062787545932977</v>
+        <v>2.062787545932935</v>
       </c>
       <c r="F9">
-        <v>11.12923331058784</v>
+        <v>11.12923331058795</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,13 +699,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.7882226642824364</v>
+        <v>0.7882226642824577</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>4.813800667186143</v>
+        <v>4.813800667186257</v>
       </c>
       <c r="L9">
         <v>4.904540551111111</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.776335038871309</v>
+        <v>2.776335038871196</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.61658737636327</v>
+        <v>1.616587376363299</v>
       </c>
       <c r="E10">
-        <v>2.72137701508008</v>
+        <v>2.721377015080122</v>
       </c>
       <c r="F10">
-        <v>15.71456370129005</v>
+        <v>15.71456370129016</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.009511330344601</v>
+        <v>1.009511330344608</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>6.3217253714935</v>
       </c>
       <c r="L10">
-        <v>6.385702183234471</v>
+        <v>6.385702183234457</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.114886224607574</v>
+        <v>3.114886224607687</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.972568508348218</v>
+        <v>1.972568508348417</v>
       </c>
       <c r="E11">
-        <v>3.169639309347986</v>
+        <v>3.169639309348014</v>
       </c>
       <c r="F11">
-        <v>19.07843310422203</v>
+        <v>19.0784331042222</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,13 +775,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.153645721897867</v>
+        <v>1.153645721897888</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>7.303276562319127</v>
+        <v>7.303276562319098</v>
       </c>
       <c r="L11">
         <v>7.328841564953422</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.278761831112604</v>
+        <v>3.27876183111249</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.178594285021148</v>
+        <v>2.178594285021006</v>
       </c>
       <c r="E12">
-        <v>3.416890605530796</v>
+        <v>3.416890605530753</v>
       </c>
       <c r="F12">
-        <v>20.99919614973498</v>
+        <v>20.9991961497343</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>7.82231045013296</v>
+        <v>7.822310450132818</v>
       </c>
       <c r="L12">
-        <v>7.819210694712353</v>
+        <v>7.819210694712325</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.240195025330479</v>
+        <v>3.240195025330706</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.127474338330586</v>
+        <v>2.127474338330785</v>
       </c>
       <c r="E13">
         <v>3.356271827567198</v>
       </c>
       <c r="F13">
-        <v>20.52473063039724</v>
+        <v>20.52473063039702</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.212148115496987</v>
+        <v>1.212148115496959</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>7.696768618112998</v>
+        <v>7.696768618112912</v>
       </c>
       <c r="L13">
-        <v>7.701194666940523</v>
+        <v>7.701194666940467</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.127177951091653</v>
+        <v>3.127177951091824</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.987085848650253</v>
+        <v>1.987085848650395</v>
       </c>
       <c r="E14">
-        <v>3.187327372250024</v>
+        <v>3.187327372250095</v>
       </c>
       <c r="F14">
-        <v>19.21448985422018</v>
+        <v>19.21448985422069</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>7.340997781936892</v>
+        <v>7.340997781937006</v>
       </c>
       <c r="L14">
-        <v>7.364690683422282</v>
+        <v>7.364690683422396</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.06455589650983</v>
+        <v>3.064555896509887</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.914489647219938</v>
+        <v>1.914489647219909</v>
       </c>
       <c r="E15">
-        <v>3.098444673107551</v>
+        <v>3.09844467310748</v>
       </c>
       <c r="F15">
-        <v>18.53312871232777</v>
+        <v>18.53312871232737</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,16 +927,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.131099101708834</v>
+        <v>1.13109910170882</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>7.150596686649124</v>
+        <v>7.15059668664918</v>
       </c>
       <c r="L15">
-        <v>7.183419941922637</v>
+        <v>7.18341994192258</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.756711110703748</v>
+        <v>2.756711110704032</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.598081389303701</v>
+        <v>1.598081389303474</v>
       </c>
       <c r="E16">
-        <v>2.697234045362322</v>
+        <v>2.697234045362308</v>
       </c>
       <c r="F16">
-        <v>15.53846974644188</v>
+        <v>15.53846974644193</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.001600114317682</v>
+        <v>1.001600114317661</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>6.267633828932105</v>
+        <v>6.267633828932077</v>
       </c>
       <c r="L16">
-        <v>6.33319619834235</v>
+        <v>6.333196198342307</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.592890313082137</v>
+        <v>2.592890313082023</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.450682330384439</v>
+        <v>1.45068233038424</v>
       </c>
       <c r="E17">
-        <v>2.501578544477695</v>
+        <v>2.50157854447778</v>
       </c>
       <c r="F17">
-        <v>14.13271749146548</v>
+        <v>14.13271749146577</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,16 +1003,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.9369228143309485</v>
+        <v>0.9369228143309201</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>5.825470015924566</v>
+        <v>5.825470015924651</v>
       </c>
       <c r="L17">
-        <v>5.902127130615199</v>
+        <v>5.902127130615241</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1026,10 +1026,10 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.375549009405745</v>
+        <v>1.375549009405574</v>
       </c>
       <c r="E18">
-        <v>2.399411140609089</v>
+        <v>2.399411140609104</v>
       </c>
       <c r="F18">
         <v>13.41437592276287</v>
@@ -1041,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.9027499476502641</v>
+        <v>0.902749947650257</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>5.592144540041772</v>
+        <v>5.592144540041801</v>
       </c>
       <c r="L18">
-        <v>5.673381821933305</v>
+        <v>5.673381821933347</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.474801842542604</v>
+        <v>2.47480184254249</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.351399730376812</v>
+        <v>1.351399730376755</v>
       </c>
       <c r="E19">
-        <v>2.366201301313311</v>
+        <v>2.366201301313296</v>
       </c>
       <c r="F19">
-        <v>13.18328815799123</v>
+        <v>13.1832881579914</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,16 +1079,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8915829431480731</v>
+        <v>0.891582943148066</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>5.515978460136751</v>
+        <v>5.515978460136779</v>
       </c>
       <c r="L19">
-        <v>5.598529850211577</v>
+        <v>5.59852985021152</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,7 +1096,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.609714664591991</v>
+        <v>2.609714664591763</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>1.465275570059788</v>
       </c>
       <c r="E20">
-        <v>2.521225570705724</v>
+        <v>2.521225570705809</v>
       </c>
       <c r="F20">
-        <v>14.27211828494711</v>
+        <v>14.27211828494717</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,16 +1117,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.9434629028636863</v>
+        <v>0.9434629028637147</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>5.870158112615997</v>
+        <v>5.870158112616053</v>
       </c>
       <c r="L20">
-        <v>5.94584028181302</v>
+        <v>5.945840281813048</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1140,13 +1140,13 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.025023647494351</v>
+        <v>2.025023647494862</v>
       </c>
       <c r="E21">
-        <v>3.233353377913986</v>
+        <v>3.233353377913971</v>
       </c>
       <c r="F21">
-        <v>19.56955874042615</v>
+        <v>19.56955874042609</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.173714977538296</v>
+        <v>1.173714977538317</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>7.438744115841075</v>
+        <v>7.438744115841132</v>
       </c>
       <c r="L21">
-        <v>7.457436942190498</v>
+        <v>7.457436942190441</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.025023647494351</v>
+        <v>2.025023647494862</v>
       </c>
       <c r="E22">
-        <v>3.233353377913986</v>
+        <v>3.233353377913971</v>
       </c>
       <c r="F22">
-        <v>19.56955874042615</v>
+        <v>19.56955874042609</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,16 +1193,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.173714977538296</v>
+        <v>1.173714977538317</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>7.438744115841075</v>
+        <v>7.438744115841132</v>
       </c>
       <c r="L22">
-        <v>7.457436942190498</v>
+        <v>7.457436942190441</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.415732389600066</v>
+        <v>3.415732389600407</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.376900101584283</v>
+        <v>2.376900101584425</v>
       </c>
       <c r="E23">
-        <v>3.647946929373745</v>
+        <v>3.64794692937383</v>
       </c>
       <c r="F23">
-        <v>22.82484305497712</v>
+        <v>22.8248430549782</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.301899646069025</v>
+        <v>1.30189964606906</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>8.289504213466245</v>
+        <v>8.289504213466472</v>
       </c>
       <c r="L23">
-        <v>8.254762024885906</v>
+        <v>8.254762024886048</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.602092262870315</v>
+        <v>2.602092262870372</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.458649475770812</v>
+        <v>1.458649475770585</v>
       </c>
       <c r="E24">
-        <v>2.512312575297301</v>
+        <v>2.512312575297358</v>
       </c>
       <c r="F24">
-        <v>14.20882844412444</v>
+        <v>14.20882844412432</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.9404972080216893</v>
+        <v>0.9404972080216609</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.011542040509227</v>
+        <v>2.011542040509028</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.005780290881404</v>
+        <v>1.005780290881034</v>
       </c>
       <c r="E25">
-        <v>1.868641202409975</v>
+        <v>1.868641202410004</v>
       </c>
       <c r="F25">
-        <v>9.871625055864342</v>
+        <v>9.871625055864257</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,16 +1307,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.72082989488365</v>
+        <v>0.7208298948836074</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>4.359622119785257</v>
+        <v>4.359622119785143</v>
       </c>
       <c r="L25">
-        <v>4.452175758016253</v>
+        <v>4.452175758016239</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_50/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.635798572065397</v>
+        <v>1.635798572065312</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.7648929081073561</v>
+        <v>0.7648929081075266</v>
       </c>
       <c r="E2">
-        <v>1.492462155628914</v>
+        <v>1.492462155628985</v>
       </c>
       <c r="F2">
-        <v>7.570195416911218</v>
+        <v>7.570195416911275</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5874928500922252</v>
+        <v>0.5874928500922323</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>3.472358772207798</v>
       </c>
       <c r="L2">
-        <v>3.561543962089701</v>
+        <v>3.561543962089715</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.399216622417612</v>
+        <v>1.399216622417157</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.6274098429411765</v>
+        <v>0.6274098429416313</v>
       </c>
       <c r="E3">
-        <v>1.264050539714688</v>
+        <v>1.264050539714674</v>
       </c>
       <c r="F3">
-        <v>6.266039809833757</v>
+        <v>6.2660398098337</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5047702474740063</v>
+        <v>0.5047702474739779</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.259752328912668</v>
+        <v>1.259752328912555</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.5508687286334748</v>
+        <v>0.5508687286335032</v>
       </c>
       <c r="E4">
-        <v>1.131693848249967</v>
+        <v>1.131693848249995</v>
       </c>
       <c r="F4">
-        <v>5.54503397447661</v>
+        <v>5.545033974476667</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4562257017063516</v>
+        <v>0.45622570170638</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>2.616691687642117</v>
       </c>
       <c r="L4">
-        <v>2.695161970194434</v>
+        <v>2.695161970194462</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.20405321704223</v>
+        <v>1.204053217042201</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.5211787742457261</v>
+        <v>0.5211787742458398</v>
       </c>
       <c r="E5">
         <v>1.079227808967516</v>
       </c>
       <c r="F5">
-        <v>5.266645524909507</v>
+        <v>5.266645524909592</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,16 +547,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4368581578409234</v>
+        <v>0.4368581578409447</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.492147629268231</v>
+        <v>2.492147629268189</v>
       </c>
       <c r="L5">
-        <v>2.56852784793557</v>
+        <v>2.568527847935542</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.194864998216076</v>
+        <v>1.194864998216161</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.516328110373081</v>
+        <v>0.5163281103731663</v>
       </c>
       <c r="E6">
-        <v>1.070592530303244</v>
+        <v>1.070592530303301</v>
       </c>
       <c r="F6">
-        <v>5.221241010715005</v>
+        <v>5.221241010714976</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.471650380748471</v>
+        <v>2.471650380748457</v>
       </c>
       <c r="L6">
-        <v>2.547674780891995</v>
+        <v>2.547674780891981</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.258996927297517</v>
+        <v>1.258996927297602</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.5504627694776332</v>
+        <v>0.550462769477889</v>
       </c>
       <c r="E7">
-        <v>1.130980885060652</v>
+        <v>1.130980885060666</v>
       </c>
       <c r="F7">
-        <v>5.54122219131736</v>
+        <v>5.541222191317416</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4559629906891374</v>
+        <v>0.4559629906891445</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.61499920831038</v>
+        <v>2.614999208310351</v>
       </c>
       <c r="L7">
-        <v>2.69344192735015</v>
+        <v>2.693441927350122</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.552795331370078</v>
+        <v>1.552795331370021</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.7155129345302385</v>
+        <v>0.7155129345300395</v>
       </c>
       <c r="E8">
-        <v>1.411701995678627</v>
+        <v>1.411701995678584</v>
       </c>
       <c r="F8">
-        <v>7.100682263460726</v>
+        <v>7.100682263460641</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5583962984276383</v>
+        <v>0.558396298427617</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.281046768667522</v>
+        <v>3.281046768667494</v>
       </c>
       <c r="L8">
-        <v>3.368424170322996</v>
+        <v>3.368424170322967</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.197378280760802</v>
+        <v>2.197378280760631</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.137011603833002</v>
+        <v>1.137011603832804</v>
       </c>
       <c r="E9">
-        <v>2.062787545932935</v>
+        <v>2.062787545932977</v>
       </c>
       <c r="F9">
-        <v>11.12923331058795</v>
+        <v>11.12923331058784</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,13 +699,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.7882226642824577</v>
+        <v>0.7882226642824364</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>4.813800667186257</v>
+        <v>4.813800667186143</v>
       </c>
       <c r="L9">
         <v>4.904540551111111</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.776335038871196</v>
+        <v>2.776335038871309</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.616587376363299</v>
+        <v>1.61658737636327</v>
       </c>
       <c r="E10">
-        <v>2.721377015080122</v>
+        <v>2.72137701508008</v>
       </c>
       <c r="F10">
-        <v>15.71456370129016</v>
+        <v>15.71456370129005</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.009511330344608</v>
+        <v>1.009511330344601</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>6.3217253714935</v>
       </c>
       <c r="L10">
-        <v>6.385702183234457</v>
+        <v>6.385702183234471</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.114886224607687</v>
+        <v>3.114886224607574</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.972568508348417</v>
+        <v>1.972568508348218</v>
       </c>
       <c r="E11">
-        <v>3.169639309348014</v>
+        <v>3.169639309347986</v>
       </c>
       <c r="F11">
-        <v>19.0784331042222</v>
+        <v>19.07843310422203</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,13 +775,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.153645721897888</v>
+        <v>1.153645721897867</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>7.303276562319098</v>
+        <v>7.303276562319127</v>
       </c>
       <c r="L11">
         <v>7.328841564953422</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.27876183111249</v>
+        <v>3.278761831112604</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.178594285021006</v>
+        <v>2.178594285021148</v>
       </c>
       <c r="E12">
-        <v>3.416890605530753</v>
+        <v>3.416890605530796</v>
       </c>
       <c r="F12">
-        <v>20.9991961497343</v>
+        <v>20.99919614973498</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>7.822310450132818</v>
+        <v>7.82231045013296</v>
       </c>
       <c r="L12">
-        <v>7.819210694712325</v>
+        <v>7.819210694712353</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.240195025330706</v>
+        <v>3.240195025330479</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.127474338330785</v>
+        <v>2.127474338330586</v>
       </c>
       <c r="E13">
         <v>3.356271827567198</v>
       </c>
       <c r="F13">
-        <v>20.52473063039702</v>
+        <v>20.52473063039724</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.212148115496959</v>
+        <v>1.212148115496987</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>7.696768618112912</v>
+        <v>7.696768618112998</v>
       </c>
       <c r="L13">
-        <v>7.701194666940467</v>
+        <v>7.701194666940523</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.127177951091824</v>
+        <v>3.127177951091653</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.987085848650395</v>
+        <v>1.987085848650253</v>
       </c>
       <c r="E14">
-        <v>3.187327372250095</v>
+        <v>3.187327372250024</v>
       </c>
       <c r="F14">
-        <v>19.21448985422069</v>
+        <v>19.21448985422018</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>7.340997781937006</v>
+        <v>7.340997781936892</v>
       </c>
       <c r="L14">
-        <v>7.364690683422396</v>
+        <v>7.364690683422282</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.064555896509887</v>
+        <v>3.06455589650983</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.914489647219909</v>
+        <v>1.914489647219938</v>
       </c>
       <c r="E15">
-        <v>3.09844467310748</v>
+        <v>3.098444673107551</v>
       </c>
       <c r="F15">
-        <v>18.53312871232737</v>
+        <v>18.53312871232777</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,16 +927,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.13109910170882</v>
+        <v>1.131099101708834</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>7.15059668664918</v>
+        <v>7.150596686649124</v>
       </c>
       <c r="L15">
-        <v>7.18341994192258</v>
+        <v>7.183419941922637</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.756711110704032</v>
+        <v>2.756711110703748</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.598081389303474</v>
+        <v>1.598081389303701</v>
       </c>
       <c r="E16">
-        <v>2.697234045362308</v>
+        <v>2.697234045362322</v>
       </c>
       <c r="F16">
-        <v>15.53846974644193</v>
+        <v>15.53846974644188</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.001600114317661</v>
+        <v>1.001600114317682</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>6.267633828932077</v>
+        <v>6.267633828932105</v>
       </c>
       <c r="L16">
-        <v>6.333196198342307</v>
+        <v>6.33319619834235</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.592890313082023</v>
+        <v>2.592890313082137</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.45068233038424</v>
+        <v>1.450682330384439</v>
       </c>
       <c r="E17">
-        <v>2.50157854447778</v>
+        <v>2.501578544477695</v>
       </c>
       <c r="F17">
-        <v>14.13271749146577</v>
+        <v>14.13271749146548</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,16 +1003,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.9369228143309201</v>
+        <v>0.9369228143309485</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>5.825470015924651</v>
+        <v>5.825470015924566</v>
       </c>
       <c r="L17">
-        <v>5.902127130615241</v>
+        <v>5.902127130615199</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1026,10 +1026,10 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.375549009405574</v>
+        <v>1.375549009405745</v>
       </c>
       <c r="E18">
-        <v>2.399411140609104</v>
+        <v>2.399411140609089</v>
       </c>
       <c r="F18">
         <v>13.41437592276287</v>
@@ -1041,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.902749947650257</v>
+        <v>0.9027499476502641</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>5.592144540041801</v>
+        <v>5.592144540041772</v>
       </c>
       <c r="L18">
-        <v>5.673381821933347</v>
+        <v>5.673381821933305</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.47480184254249</v>
+        <v>2.474801842542604</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.351399730376755</v>
+        <v>1.351399730376812</v>
       </c>
       <c r="E19">
-        <v>2.366201301313296</v>
+        <v>2.366201301313311</v>
       </c>
       <c r="F19">
-        <v>13.1832881579914</v>
+        <v>13.18328815799123</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,16 +1079,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.891582943148066</v>
+        <v>0.8915829431480731</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>5.515978460136779</v>
+        <v>5.515978460136751</v>
       </c>
       <c r="L19">
-        <v>5.59852985021152</v>
+        <v>5.598529850211577</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,7 +1096,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.609714664591763</v>
+        <v>2.609714664591991</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>1.465275570059788</v>
       </c>
       <c r="E20">
-        <v>2.521225570705809</v>
+        <v>2.521225570705724</v>
       </c>
       <c r="F20">
-        <v>14.27211828494717</v>
+        <v>14.27211828494711</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,16 +1117,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.9434629028637147</v>
+        <v>0.9434629028636863</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>5.870158112616053</v>
+        <v>5.870158112615997</v>
       </c>
       <c r="L20">
-        <v>5.945840281813048</v>
+        <v>5.94584028181302</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1140,13 +1140,13 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.025023647494862</v>
+        <v>2.025023647494351</v>
       </c>
       <c r="E21">
-        <v>3.233353377913971</v>
+        <v>3.233353377913986</v>
       </c>
       <c r="F21">
-        <v>19.56955874042609</v>
+        <v>19.56955874042615</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.173714977538317</v>
+        <v>1.173714977538296</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>7.438744115841132</v>
+        <v>7.438744115841075</v>
       </c>
       <c r="L21">
-        <v>7.457436942190441</v>
+        <v>7.457436942190498</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.025023647494862</v>
+        <v>2.025023647494351</v>
       </c>
       <c r="E22">
-        <v>3.233353377913971</v>
+        <v>3.233353377913986</v>
       </c>
       <c r="F22">
-        <v>19.56955874042609</v>
+        <v>19.56955874042615</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,16 +1193,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.173714977538317</v>
+        <v>1.173714977538296</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>7.438744115841132</v>
+        <v>7.438744115841075</v>
       </c>
       <c r="L22">
-        <v>7.457436942190441</v>
+        <v>7.457436942190498</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.415732389600407</v>
+        <v>3.415732389600066</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.376900101584425</v>
+        <v>2.376900101584283</v>
       </c>
       <c r="E23">
-        <v>3.64794692937383</v>
+        <v>3.647946929373745</v>
       </c>
       <c r="F23">
-        <v>22.8248430549782</v>
+        <v>22.82484305497712</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.30189964606906</v>
+        <v>1.301899646069025</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>8.289504213466472</v>
+        <v>8.289504213466245</v>
       </c>
       <c r="L23">
-        <v>8.254762024886048</v>
+        <v>8.254762024885906</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.602092262870372</v>
+        <v>2.602092262870315</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.458649475770585</v>
+        <v>1.458649475770812</v>
       </c>
       <c r="E24">
-        <v>2.512312575297358</v>
+        <v>2.512312575297301</v>
       </c>
       <c r="F24">
-        <v>14.20882844412432</v>
+        <v>14.20882844412444</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.9404972080216609</v>
+        <v>0.9404972080216893</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.011542040509028</v>
+        <v>2.011542040509227</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.005780290881034</v>
+        <v>1.005780290881404</v>
       </c>
       <c r="E25">
-        <v>1.868641202410004</v>
+        <v>1.868641202409975</v>
       </c>
       <c r="F25">
-        <v>9.871625055864257</v>
+        <v>9.871625055864342</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,16 +1307,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.7208298948836074</v>
+        <v>0.72082989488365</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>4.359622119785143</v>
+        <v>4.359622119785257</v>
       </c>
       <c r="L25">
-        <v>4.452175758016239</v>
+        <v>4.452175758016253</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_50/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.635798572065312</v>
+        <v>1.628043225443292</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.7648929081075266</v>
+        <v>0.7468727320541291</v>
       </c>
       <c r="E2">
-        <v>1.492462155628985</v>
+        <v>1.462841594702383</v>
       </c>
       <c r="F2">
-        <v>7.570195416911275</v>
+        <v>7.462560379453578</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0006526259183829157</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5874928500922323</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.5769942461575397</v>
       </c>
       <c r="K2">
-        <v>3.472358772207798</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>3.561543962089715</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>3.431893037951141</v>
+      </c>
+      <c r="M2">
+        <v>3.526381152872432</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.399216622417157</v>
+        <v>1.393609034834867</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.6274098429416313</v>
+        <v>0.6137438891445868</v>
       </c>
       <c r="E3">
-        <v>1.264050539714674</v>
+        <v>1.23853258517579</v>
       </c>
       <c r="F3">
-        <v>6.2660398098337</v>
+        <v>6.195582509312516</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.000680600824289408</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5047702474739779</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.4954012508070207</v>
       </c>
       <c r="K3">
-        <v>2.930854331372615</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>3.014024559036301</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>2.898423313299503</v>
+      </c>
+      <c r="M3">
+        <v>2.986267890114107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.259752328912555</v>
+        <v>1.255334577259731</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.5508687286335032</v>
+        <v>0.5395963829247421</v>
       </c>
       <c r="E4">
-        <v>1.131693848249995</v>
+        <v>1.108393779731443</v>
       </c>
       <c r="F4">
-        <v>5.545033974476667</v>
+        <v>5.494884091818307</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0006974108883261998</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.45622570170638</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4474639141323564</v>
       </c>
       <c r="K4">
-        <v>2.616691687642117</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>2.695161970194462</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>2.588636766613362</v>
+      </c>
+      <c r="M4">
+        <v>2.671453063702145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.204053217042201</v>
+        <v>1.200098761393804</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.5211787742458398</v>
+        <v>0.5108348575169543</v>
       </c>
       <c r="E5">
-        <v>1.079227808967516</v>
+        <v>1.056780355860369</v>
       </c>
       <c r="F5">
-        <v>5.266645524909592</v>
+        <v>5.224345463102196</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007042161614567721</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4368581578409447</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4283290915542182</v>
       </c>
       <c r="K5">
-        <v>2.492147629268189</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>2.568527847935542</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>2.465781480537572</v>
+      </c>
+      <c r="M5">
+        <v>2.546383929476889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.194864998216161</v>
+        <v>1.190986408203884</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.5163281103731663</v>
+        <v>0.5061360351897406</v>
       </c>
       <c r="E6">
-        <v>1.070592530303301</v>
+        <v>1.048284098401027</v>
       </c>
       <c r="F6">
-        <v>5.221241010714976</v>
+        <v>5.180223273174249</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.000705344585250761</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4336636843746717</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4251725248057667</v>
       </c>
       <c r="K6">
-        <v>2.471650380748457</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>2.547674780891981</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>2.445559942741497</v>
+      </c>
+      <c r="M6">
+        <v>2.525786526123142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.258996927297602</v>
+        <v>1.254585499937093</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.550462769477889</v>
+        <v>0.5392031109280424</v>
       </c>
       <c r="E7">
-        <v>1.130980885060666</v>
+        <v>1.107692497208348</v>
       </c>
       <c r="F7">
-        <v>5.541222191317416</v>
+        <v>5.49117968222356</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0006975027961704239</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4559629906891445</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.44720439409204</v>
       </c>
       <c r="K7">
-        <v>2.614999208310351</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>2.693441927350122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>2.586967398298171</v>
+      </c>
+      <c r="M7">
+        <v>2.66975442652442</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.552795331370021</v>
+        <v>1.54581545702851</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.7155129345300395</v>
+        <v>0.6990698406748947</v>
       </c>
       <c r="E8">
-        <v>1.411701995678584</v>
+        <v>1.383577078964507</v>
       </c>
       <c r="F8">
-        <v>7.100682263460641</v>
+        <v>7.006546050889966</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0006623812094303436</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.558396298427617</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.5483104185589482</v>
       </c>
       <c r="K8">
-        <v>3.281046768667494</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>3.368424170322967</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>3.243501519444379</v>
+      </c>
+      <c r="M8">
+        <v>3.335949764295137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.197378280760631</v>
+        <v>2.183368269167829</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.137011603832804</v>
+        <v>1.106081977056846</v>
       </c>
       <c r="E9">
-        <v>2.062787545932977</v>
+        <v>2.020564401105517</v>
       </c>
       <c r="F9">
-        <v>11.12923331058784</v>
+        <v>10.90995960243563</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0005871933198154003</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.7882226642824364</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.7742095597230474</v>
       </c>
       <c r="K9">
-        <v>4.813800667186143</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>4.904540551111111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>4.749065904072609</v>
+      </c>
+      <c r="M9">
+        <v>4.847166112813696</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.776335038871309</v>
+        <v>2.751567132148409</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.61658737636327</v>
+        <v>1.56286234361437</v>
       </c>
       <c r="E10">
-        <v>2.72137701508008</v>
+        <v>2.655771767490648</v>
       </c>
       <c r="F10">
-        <v>15.71456370129005</v>
+        <v>15.2952376700465</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0005179671797310004</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.009511330344601</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.988844047507321</v>
       </c>
       <c r="K10">
-        <v>6.3217253714935</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>6.385702183234471</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>6.213101282721595</v>
+      </c>
+      <c r="M10">
+        <v>6.288527214698078</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.114886224607574</v>
+        <v>3.076868686115972</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.972568508348218</v>
+        <v>1.890241470501877</v>
       </c>
       <c r="E11">
-        <v>3.169639309347986</v>
+        <v>3.073630861177932</v>
       </c>
       <c r="F11">
-        <v>19.07843310422203</v>
+        <v>18.40631032673843</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0004750166225571608</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.153645721897867</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.124177370288841</v>
       </c>
       <c r="K11">
-        <v>7.303276562319127</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>7.328841564953422</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>7.138739685465652</v>
+      </c>
+      <c r="M11">
+        <v>7.181260633551346</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.278761831112604</v>
+        <v>3.22798981062067</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.178594285021148</v>
+        <v>2.068509511025582</v>
       </c>
       <c r="E12">
-        <v>3.416890605530796</v>
+        <v>3.290882065381396</v>
       </c>
       <c r="F12">
-        <v>20.99919614973498</v>
+        <v>20.08134809296132</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0004534883199593856</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.23096607634168</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1.192735299075416</v>
       </c>
       <c r="K12">
-        <v>7.82231045013296</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>7.819210694712353</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>7.603179452643019</v>
+      </c>
+      <c r="M12">
+        <v>7.622531470980874</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.240195025330479</v>
+        <v>3.193152249599166</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.127474338330586</v>
+        <v>2.025518750956678</v>
       </c>
       <c r="E13">
-        <v>3.356271827567198</v>
+        <v>3.239079445221279</v>
       </c>
       <c r="F13">
-        <v>20.52473063039724</v>
+        <v>19.67885533922401</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0004585705555252243</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.212148115496987</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1.176497397763491</v>
       </c>
       <c r="K13">
-        <v>7.696768618112998</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>7.701194666940523</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>7.493644368205935</v>
+      </c>
+      <c r="M13">
+        <v>7.518904128552037</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.127177951091653</v>
+        <v>3.088431588801257</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.987085848650253</v>
+        <v>1.903176755719045</v>
       </c>
       <c r="E14">
-        <v>3.187327372250024</v>
+        <v>3.089618354409367</v>
       </c>
       <c r="F14">
-        <v>19.21448985422018</v>
+        <v>18.5283660407693</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0004734133392428121</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.159227487754748</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1.129263951895801</v>
       </c>
       <c r="K14">
-        <v>7.340997781936892</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>7.364690683422282</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>7.17335508520074</v>
+      </c>
+      <c r="M14">
+        <v>7.214314483844504</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.06455589650983</v>
+        <v>3.029262056515506</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.914489647219938</v>
+        <v>1.838068851403904</v>
       </c>
       <c r="E15">
-        <v>3.098444673107551</v>
+        <v>3.008771419841494</v>
       </c>
       <c r="F15">
-        <v>18.53312871232777</v>
+        <v>17.91326627672885</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0004815515126251391</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.131099101708834</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1.10347333594877</v>
       </c>
       <c r="K15">
-        <v>7.150596686649124</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>7.183419941922637</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>6.997645799911652</v>
+      </c>
+      <c r="M15">
+        <v>7.046269692347778</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.756711110703748</v>
+        <v>2.732462582125493</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.598081389303701</v>
+        <v>1.545468747192416</v>
       </c>
       <c r="E16">
-        <v>2.697234045362322</v>
+        <v>2.632793004522554</v>
       </c>
       <c r="F16">
-        <v>15.53846974644188</v>
+        <v>15.12895184690393</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0005203872462021001</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.001600114317682</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.9812671935042516</v>
       </c>
       <c r="K16">
-        <v>6.267633828932105</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>6.33319619834235</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>6.161170789525215</v>
+      </c>
+      <c r="M16">
+        <v>6.237974179293118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.592890313082137</v>
+        <v>2.572406104914478</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.450682330384439</v>
+        <v>1.406101768955637</v>
       </c>
       <c r="E17">
-        <v>2.501578544477695</v>
+        <v>2.44548364790684</v>
       </c>
       <c r="F17">
-        <v>14.13271749146548</v>
+        <v>13.79391596032167</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0005403427922765897</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.9369228143309485</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.9189787485706731</v>
       </c>
       <c r="K17">
-        <v>5.825470015924566</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>5.902127130615199</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>5.734562947945307</v>
+      </c>
+      <c r="M17">
+        <v>5.820979880573233</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.504113378638692</v>
+        <v>2.485337720828227</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.375549009405745</v>
+        <v>1.334593643821023</v>
       </c>
       <c r="E18">
-        <v>2.399411140609089</v>
+        <v>2.347043355072756</v>
       </c>
       <c r="F18">
-        <v>13.41437592276287</v>
+        <v>13.10741503304672</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.000550996383325945</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.9027499476502641</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.8858674263509698</v>
       </c>
       <c r="K18">
-        <v>5.592144540041772</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>5.673381821933305</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>5.508225643076742</v>
+      </c>
+      <c r="M18">
+        <v>5.598568819099228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.474801842542604</v>
+        <v>2.45655065838082</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.351399730376812</v>
+        <v>1.311554239781941</v>
       </c>
       <c r="E19">
-        <v>2.366201301313311</v>
+        <v>2.314968914800815</v>
       </c>
       <c r="F19">
-        <v>13.18328815799123</v>
+        <v>12.88606348056589</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0005544928706886474</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8915829431480731</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.8750230798366729</v>
       </c>
       <c r="K19">
-        <v>5.515978460136751</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>5.598529850211577</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>5.43419420366294</v>
+      </c>
+      <c r="M19">
+        <v>5.52565342624456</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.609714664591991</v>
+        <v>2.588883864105526</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.465275570059788</v>
+        <v>1.419957923580768</v>
       </c>
       <c r="E20">
-        <v>2.521225570705724</v>
+        <v>2.464369593001834</v>
       </c>
       <c r="F20">
-        <v>14.27211828494711</v>
+        <v>13.92683619948485</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0005383120957633678</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.9434629028636863</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.9253016428925349</v>
       </c>
       <c r="K20">
-        <v>5.870158112615997</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>5.94584028181302</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>5.777827443665785</v>
+      </c>
+      <c r="M20">
+        <v>5.86340360732197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.158759595417052</v>
+        <v>3.118006963851144</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.025023647494351</v>
+        <v>1.936756425012305</v>
       </c>
       <c r="E21">
-        <v>3.233353377913986</v>
+        <v>3.130952733004776</v>
       </c>
       <c r="F21">
-        <v>19.56955874042615</v>
+        <v>18.84486176456369</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.00046928206057894</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.173714977538296</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1.142384168126448</v>
       </c>
       <c r="K21">
-        <v>7.438744115841075</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>7.457436942190498</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>7.26254121493659</v>
+      </c>
+      <c r="M21">
+        <v>7.299358102792326</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.158759595417052</v>
+        <v>3.118006963851144</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.025023647494351</v>
+        <v>1.936756425012305</v>
       </c>
       <c r="E22">
-        <v>3.233353377913986</v>
+        <v>3.130952733004776</v>
       </c>
       <c r="F22">
-        <v>19.56955874042615</v>
+        <v>18.84486176456369</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.00046928206057894</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.173714977538296</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.142384168126448</v>
       </c>
       <c r="K22">
-        <v>7.438744115841075</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>7.457436942190498</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>7.26254121493659</v>
+      </c>
+      <c r="M22">
+        <v>7.299358102792326</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.415732389600066</v>
+        <v>3.118006963851144</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.376900101584283</v>
+        <v>1.936756425012305</v>
       </c>
       <c r="E23">
-        <v>3.647946929373745</v>
+        <v>3.130952733004776</v>
       </c>
       <c r="F23">
-        <v>22.82484305497712</v>
+        <v>18.84486176456369</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.00046928206057894</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.301899646069025</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.142384168126448</v>
       </c>
       <c r="K23">
-        <v>8.289504213466245</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>8.254762024885906</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>7.26254121493659</v>
+      </c>
+      <c r="M23">
+        <v>7.299358102792326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.602092262870315</v>
+        <v>3.118006963851144</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.458649475770812</v>
+        <v>1.936756425012305</v>
       </c>
       <c r="E24">
-        <v>2.512312575297301</v>
+        <v>3.130952733004776</v>
       </c>
       <c r="F24">
-        <v>14.20882844412444</v>
+        <v>18.84486176456369</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.00046928206057894</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.9404972080216893</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1.142384168126448</v>
       </c>
       <c r="K24">
-        <v>5.849892580905987</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>5.92602083804826</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>7.26254121493659</v>
+      </c>
+      <c r="M24">
+        <v>7.299358102792326</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.011542040509227</v>
+        <v>3.118006963851144</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.005780290881404</v>
+        <v>1.936756425012305</v>
       </c>
       <c r="E25">
-        <v>1.868641202409975</v>
+        <v>3.130952733004776</v>
       </c>
       <c r="F25">
-        <v>9.871625055864342</v>
+        <v>18.84486176456369</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.00046928206057894</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.72082989488365</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1.142384168126448</v>
       </c>
       <c r="K25">
-        <v>4.359622119785257</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>4.452175758016253</v>
+        <v>7.26254121493659</v>
+      </c>
+      <c r="M25">
+        <v>7.299358102792326</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_50/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.628043225443292</v>
+        <v>2.300728234861424</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.7468727320541291</v>
+        <v>0.07165325509146925</v>
       </c>
       <c r="E2">
-        <v>1.462841594702383</v>
+        <v>1.341471787255529</v>
       </c>
       <c r="F2">
-        <v>7.462560379453578</v>
+        <v>3.4377209040114</v>
       </c>
       <c r="G2">
-        <v>0.0006526259183829157</v>
+        <v>0.0007150880780888614</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,39 +445,45 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.5769942461575397</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>3.431893037951141</v>
+        <v>1.439576173265351</v>
       </c>
       <c r="M2">
-        <v>3.526381152872432</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.9439646586607964</v>
+      </c>
+      <c r="O2">
+        <v>2.853150951088153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.393609034834867</v>
+        <v>2.006516117696663</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.6137438891445868</v>
+        <v>0.06169137292867788</v>
       </c>
       <c r="E3">
-        <v>1.23853258517579</v>
+        <v>1.175525817850669</v>
       </c>
       <c r="F3">
-        <v>6.195582509312516</v>
+        <v>2.957572142407287</v>
       </c>
       <c r="G3">
-        <v>0.000680600824289408</v>
+        <v>0.0007277001995996089</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,39 +492,45 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4954012508070207</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2.898423313299503</v>
+        <v>1.238928389827635</v>
       </c>
       <c r="M3">
-        <v>2.986267890114107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0.972927037291214</v>
+      </c>
+      <c r="O3">
+        <v>2.454686299429227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.255334577259731</v>
+        <v>1.829159197147533</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.5395963829247421</v>
+        <v>0.05593695575721824</v>
       </c>
       <c r="E4">
-        <v>1.108393779731443</v>
+        <v>1.075497596272513</v>
       </c>
       <c r="F4">
-        <v>5.494884091818307</v>
+        <v>2.673901858061242</v>
       </c>
       <c r="G4">
-        <v>0.0006974108883261998</v>
+        <v>0.0007355768814413673</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -521,39 +539,45 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4474639141323564</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>2.588636766613362</v>
+        <v>1.117960024008795</v>
       </c>
       <c r="M4">
-        <v>2.671453063702145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0.9921556807820622</v>
+      </c>
+      <c r="O4">
+        <v>2.219506805366365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.200098761393804</v>
+        <v>1.75759694562143</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.5108348575169543</v>
+        <v>0.05366988562371944</v>
       </c>
       <c r="E5">
-        <v>1.056780355860369</v>
+        <v>1.035105854754761</v>
       </c>
       <c r="F5">
-        <v>5.224345463102196</v>
+        <v>2.560692653034266</v>
       </c>
       <c r="G5">
-        <v>0.0007042161614567721</v>
+        <v>0.0007388249656752225</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -562,39 +586,45 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4283290915542182</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>2.465781480537572</v>
+        <v>1.069129757391494</v>
       </c>
       <c r="M5">
-        <v>2.546383929476889</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1.000346548261831</v>
+      </c>
+      <c r="O5">
+        <v>2.125701981579624</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.190986408203884</v>
+        <v>1.745753971089272</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.5061360351897406</v>
+        <v>0.05329779279782798</v>
       </c>
       <c r="E6">
-        <v>1.048284098401027</v>
+        <v>1.028418619428763</v>
       </c>
       <c r="F6">
-        <v>5.180223273174249</v>
+        <v>2.542027520472857</v>
       </c>
       <c r="G6">
-        <v>0.000705344585250761</v>
+        <v>0.0007393667505212942</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -603,39 +633,45 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4251725248057667</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>2.445559942741497</v>
+        <v>1.061047061967571</v>
       </c>
       <c r="M6">
-        <v>2.525786526123142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1.001727841542476</v>
+      </c>
+      <c r="O6">
+        <v>2.11023910604716</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.254585499937093</v>
+        <v>1.828191343235574</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.5392031109280424</v>
+        <v>0.05590608199154445</v>
       </c>
       <c r="E7">
-        <v>1.107692497208348</v>
+        <v>1.074951477934988</v>
       </c>
       <c r="F7">
-        <v>5.49117968222356</v>
+        <v>2.672365915657764</v>
       </c>
       <c r="G7">
-        <v>0.0006975027961704239</v>
+        <v>0.0007356205252912866</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -644,39 +680,45 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.44720439409204</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>2.586967398298171</v>
+        <v>1.117299715579492</v>
       </c>
       <c r="M7">
-        <v>2.66975442652442</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0.9922647189435949</v>
+      </c>
+      <c r="O7">
+        <v>2.21823392195752</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.54581545702851</v>
+        <v>2.198527227403702</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.6990698406748947</v>
+        <v>0.06813470118858334</v>
       </c>
       <c r="E8">
-        <v>1.383577078964507</v>
+        <v>1.283803159857854</v>
       </c>
       <c r="F8">
-        <v>7.006546050889966</v>
+        <v>3.269586706463315</v>
       </c>
       <c r="G8">
-        <v>0.0006623812094303436</v>
+        <v>0.0007194123193111927</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -685,39 +727,45 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5483104185589482</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>3.243501519444379</v>
+        <v>1.369868543537024</v>
       </c>
       <c r="M8">
-        <v>3.335949764295137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0.9536455825610091</v>
+      </c>
+      <c r="O8">
+        <v>2.713566808425725</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.183368269167829</v>
+        <v>2.956901194671786</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.106081977056846</v>
+        <v>0.09569772492370987</v>
       </c>
       <c r="E9">
-        <v>2.020564401105517</v>
+        <v>1.713506840842783</v>
       </c>
       <c r="F9">
-        <v>10.90995960243563</v>
+        <v>4.551177722706541</v>
       </c>
       <c r="G9">
-        <v>0.0005871933198154003</v>
+        <v>0.0006884218137917219</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -726,39 +774,45 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.7742095597230474</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>4.749065904072609</v>
+        <v>1.887922653985299</v>
       </c>
       <c r="M9">
-        <v>4.847166112813696</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.8897916358565112</v>
+      </c>
+      <c r="O9">
+        <v>3.778842678635698</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.751567132148409</v>
+        <v>3.543724787134977</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.56286234361437</v>
+        <v>0.1193551972997682</v>
       </c>
       <c r="E10">
-        <v>2.655771767490648</v>
+        <v>2.050920345703389</v>
       </c>
       <c r="F10">
-        <v>15.2952376700465</v>
+        <v>5.597657526738033</v>
       </c>
       <c r="G10">
-        <v>0.0005179671797310004</v>
+        <v>0.0006656940706915042</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,39 +821,45 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.988844047507321</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.213101282721595</v>
+        <v>2.291014150227653</v>
       </c>
       <c r="M10">
-        <v>6.288527214698078</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0.850721206054061</v>
+      </c>
+      <c r="O10">
+        <v>4.6506973205978</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.076868686115972</v>
+        <v>3.819973374474898</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.890241470501877</v>
+        <v>0.1312234790729008</v>
       </c>
       <c r="E11">
-        <v>3.073630861177932</v>
+        <v>2.212014345427008</v>
       </c>
       <c r="F11">
-        <v>18.40631032673843</v>
+        <v>6.107561593003908</v>
       </c>
       <c r="G11">
-        <v>0.0004750166225571608</v>
+        <v>0.0006552332173084236</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,39 +868,45 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.124177370288841</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.138739685465652</v>
+        <v>2.481774322222776</v>
       </c>
       <c r="M11">
-        <v>7.181260633551346</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0.83479194080779</v>
+      </c>
+      <c r="O11">
+        <v>5.076102281204072</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.22798981062067</v>
+        <v>3.926220625198823</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.068509511025582</v>
+        <v>0.1359175612969921</v>
       </c>
       <c r="E12">
-        <v>3.290882065381396</v>
+        <v>2.27443525171951</v>
       </c>
       <c r="F12">
-        <v>20.08134809296132</v>
+        <v>6.306729582598081</v>
       </c>
       <c r="G12">
-        <v>0.0004534883199593856</v>
+        <v>0.0006512401464817438</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -849,39 +915,45 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.192735299075416</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.603179452643019</v>
+        <v>2.555344477253897</v>
       </c>
       <c r="M12">
-        <v>7.622531470980874</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0.8290375467270508</v>
+      </c>
+      <c r="O12">
+        <v>5.242364970641631</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.193152249599166</v>
+        <v>3.903260001625256</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.025518750956678</v>
+        <v>0.1348969514749143</v>
       </c>
       <c r="E13">
-        <v>3.239079445221279</v>
+        <v>2.260922548788159</v>
       </c>
       <c r="F13">
-        <v>19.67885533922401</v>
+        <v>6.263542218112434</v>
       </c>
       <c r="G13">
-        <v>0.0004585705555252243</v>
+        <v>0.0006521018057104279</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -890,39 +962,45 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.176497397763491</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.493644368205935</v>
+        <v>2.539435489699997</v>
       </c>
       <c r="M13">
-        <v>7.518904128552037</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0.8302643067322748</v>
+      </c>
+      <c r="O13">
+        <v>5.206308054284847</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.088431588801257</v>
+        <v>3.82867960679971</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.903176755719045</v>
+        <v>0.1316053867212759</v>
       </c>
       <c r="E14">
-        <v>3.089618354409367</v>
+        <v>2.217119140431535</v>
       </c>
       <c r="F14">
-        <v>18.5283660407693</v>
+        <v>6.12381740438434</v>
       </c>
       <c r="G14">
-        <v>0.0004734133392428121</v>
+        <v>0.0006549054366341274</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -931,39 +1009,45 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.129263951895801</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.17335508520074</v>
+        <v>2.487798470888919</v>
       </c>
       <c r="M14">
-        <v>7.214314483844504</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0.83431288567742</v>
+      </c>
+      <c r="O14">
+        <v>5.089670327652698</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.029262056515506</v>
+        <v>3.783220345671168</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.838068851403904</v>
+        <v>0.129616625336169</v>
       </c>
       <c r="E15">
-        <v>3.008771419841494</v>
+        <v>2.190484160951783</v>
       </c>
       <c r="F15">
-        <v>17.91326627672885</v>
+        <v>6.039064655005006</v>
       </c>
       <c r="G15">
-        <v>0.0004815515126251391</v>
+        <v>0.0006566181186597151</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -972,39 +1056,45 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.10347333594877</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.997645799911652</v>
+        <v>2.456352114821982</v>
       </c>
       <c r="M15">
-        <v>7.046269692347778</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0.8368292948396885</v>
+      </c>
+      <c r="O15">
+        <v>5.018934834175639</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.732462582125493</v>
+        <v>3.525882641491592</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.545468747192416</v>
+        <v>0.1186050850428586</v>
       </c>
       <c r="E16">
-        <v>2.632793004522554</v>
+        <v>2.040571251761889</v>
       </c>
       <c r="F16">
-        <v>15.12895184690393</v>
+        <v>5.565112107420134</v>
       </c>
       <c r="G16">
-        <v>0.0005203872462021001</v>
+        <v>0.0006663741208902945</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1013,39 +1103,45 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.9812671935042516</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.161170789525215</v>
+        <v>2.278717943818492</v>
       </c>
       <c r="M16">
-        <v>6.237974179293118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0.8518003885000951</v>
+      </c>
+      <c r="O16">
+        <v>4.623557900011576</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.572406104914478</v>
+        <v>3.370590203908307</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.406101768955637</v>
+        <v>0.1121590498302396</v>
       </c>
       <c r="E17">
-        <v>2.44548364790684</v>
+        <v>1.950756541373266</v>
       </c>
       <c r="F17">
-        <v>13.79391596032167</v>
+        <v>5.28380036523447</v>
       </c>
       <c r="G17">
-        <v>0.0005403427922765897</v>
+        <v>0.000672318817291662</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1054,39 +1150,45 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.9189787485706731</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>5.734562947945307</v>
+        <v>2.171811486398042</v>
       </c>
       <c r="M17">
-        <v>5.820979880573233</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0.8614657483682606</v>
+      </c>
+      <c r="O17">
+        <v>4.389038746467008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.485337720828227</v>
+        <v>3.282124102461808</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.334593643821023</v>
+        <v>0.1085526402260797</v>
       </c>
       <c r="E18">
-        <v>2.347043355072756</v>
+        <v>1.899789335861371</v>
       </c>
       <c r="F18">
-        <v>13.10741503304672</v>
+        <v>5.125096663203863</v>
       </c>
       <c r="G18">
-        <v>0.000550996383325945</v>
+        <v>0.000675727604708425</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1095,39 +1197,45 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.8858674263509698</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>5.508225643076742</v>
+        <v>2.110998067607909</v>
       </c>
       <c r="M18">
-        <v>5.598568819099228</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0.8671978008315477</v>
+      </c>
+      <c r="O18">
+        <v>4.256785426762548</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.45655065838082</v>
+        <v>3.252309550198788</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.311554239781941</v>
+        <v>0.1073478733934223</v>
       </c>
       <c r="E19">
-        <v>2.314968914800815</v>
+        <v>1.882643019605851</v>
       </c>
       <c r="F19">
-        <v>12.88606348056589</v>
+        <v>5.071862422409282</v>
       </c>
       <c r="G19">
-        <v>0.0005544928706886474</v>
+        <v>0.000676880346268093</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1136,39 +1244,45 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.8750230798366729</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>5.43419420366294</v>
+        <v>2.09051661821249</v>
       </c>
       <c r="M19">
-        <v>5.52565342624456</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0.8691678781923571</v>
+      </c>
+      <c r="O19">
+        <v>4.212432018797244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.588883864105526</v>
+        <v>3.387030992735788</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.419957923580768</v>
+        <v>0.1128345077173094</v>
       </c>
       <c r="E20">
-        <v>2.464369593001834</v>
+        <v>1.960243791758288</v>
       </c>
       <c r="F20">
-        <v>13.92683619948485</v>
+        <v>5.313417876954986</v>
       </c>
       <c r="G20">
-        <v>0.0005383120957633678</v>
+        <v>0.0006716871673009231</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1177,39 +1291,45 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.9253016428925349</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>5.777827443665785</v>
+        <v>2.183120104739118</v>
       </c>
       <c r="M20">
-        <v>5.86340360732197</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0.860418881503378</v>
+      </c>
+      <c r="O20">
+        <v>4.41372423934996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.118006963851144</v>
+        <v>3.850538486949404</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.936756425012305</v>
+        <v>0.132566396570482</v>
       </c>
       <c r="E21">
-        <v>3.130952733004776</v>
+        <v>2.229943728766884</v>
       </c>
       <c r="F21">
-        <v>18.84486176456369</v>
+        <v>6.164681814811189</v>
       </c>
       <c r="G21">
-        <v>0.00046928206057894</v>
+        <v>0.0006540829363017478</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1218,39 +1338,45 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.142384168126448</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.26254121493659</v>
+        <v>2.502926837122601</v>
       </c>
       <c r="M21">
-        <v>7.299358102792326</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0.8331160828116424</v>
+      </c>
+      <c r="O21">
+        <v>5.123779781401311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.118006963851144</v>
+        <v>4.163207965441131</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.936756425012305</v>
+        <v>0.146654707501753</v>
       </c>
       <c r="E22">
-        <v>3.130952733004776</v>
+        <v>2.414698244000121</v>
       </c>
       <c r="F22">
-        <v>18.84486176456369</v>
+        <v>6.757269167969952</v>
       </c>
       <c r="G22">
-        <v>0.00046928206057894</v>
+        <v>0.0006423828195384521</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1259,39 +1385,45 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.142384168126448</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.26254121493659</v>
+        <v>2.719889766235127</v>
       </c>
       <c r="M22">
-        <v>7.299358102792326</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0.8168965559881229</v>
+      </c>
+      <c r="O22">
+        <v>5.618671567185203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.118006963851144</v>
+        <v>3.995320721272265</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.936756425012305</v>
+        <v>0.139009868135588</v>
       </c>
       <c r="E23">
-        <v>3.130952733004776</v>
+        <v>2.315181295594428</v>
       </c>
       <c r="F23">
-        <v>18.84486176456369</v>
+        <v>6.437191978405423</v>
       </c>
       <c r="G23">
-        <v>0.00046928206057894</v>
+        <v>0.0006486509471812039</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1300,39 +1432,45 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.142384168126448</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.26254121493659</v>
+        <v>2.603257018798416</v>
       </c>
       <c r="M23">
-        <v>7.299358102792326</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0.8254003968203563</v>
+      </c>
+      <c r="O23">
+        <v>5.351303084193177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.118006963851144</v>
+        <v>3.379595599712843</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.936756425012305</v>
+        <v>0.1125288261997213</v>
       </c>
       <c r="E24">
-        <v>3.130952733004776</v>
+        <v>1.95595254695094</v>
       </c>
       <c r="F24">
-        <v>18.84486176456369</v>
+        <v>5.300018461101871</v>
       </c>
       <c r="G24">
-        <v>0.00046928206057894</v>
+        <v>0.0006719727630530871</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,39 +1479,45 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.142384168126448</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.26254121493659</v>
+        <v>2.178005477858363</v>
       </c>
       <c r="M24">
-        <v>7.299358102792326</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0.8608916249112468</v>
+      </c>
+      <c r="O24">
+        <v>4.402555981988627</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.118006963851144</v>
+        <v>2.747364335945974</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.936756425012305</v>
+        <v>0.0877463946000816</v>
       </c>
       <c r="E25">
-        <v>3.130952733004776</v>
+        <v>1.594253838581594</v>
       </c>
       <c r="F25">
-        <v>18.84486176456369</v>
+        <v>4.189207731427501</v>
       </c>
       <c r="G25">
-        <v>0.00046928206057894</v>
+        <v>0.0006967611952885783</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1382,16 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1.142384168126448</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.26254121493659</v>
+        <v>1.744546482243294</v>
       </c>
       <c r="M25">
-        <v>7.299358102792326</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.9057344613295868</v>
+      </c>
+      <c r="O25">
+        <v>3.47767661070688</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_50/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.2159311196958242</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.962156634124085</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.4458463743327314</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>10.20143325660274</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.002262188176948793</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.3757315010515043</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.538965158849294</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0.1913949238933697</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.8365037704559768</v>
+      </c>
+      <c r="E3">
+        <v>0.3839303037647994</v>
+      </c>
+      <c r="F3">
+        <v>8.971073824027258</v>
+      </c>
+      <c r="G3">
+        <v>0.002292580828655577</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0.3656238581545637</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1.440536212657179</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0.1762869034279646</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.7611049410724036</v>
+      </c>
+      <c r="E4">
+        <v>0.3467450935371517</v>
+      </c>
+      <c r="F4">
+        <v>8.234177258725538</v>
+      </c>
+      <c r="G4">
+        <v>0.0023118492310552</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0.3596127975951688</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1.380350891855613</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0.1701201473110672</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.730766063620365</v>
+      </c>
+      <c r="E5">
+        <v>0.3317727812344629</v>
+      </c>
+      <c r="F5">
+        <v>7.938027056214651</v>
+      </c>
+      <c r="G5">
+        <v>0.002319859200419272</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0.3572128864356259</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1.3558914054328</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0.1690955695420513</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.7257501818318701</v>
+      </c>
+      <c r="E6">
+        <v>0.3292967917133183</v>
+      </c>
+      <c r="F6">
+        <v>7.889087161741202</v>
+      </c>
+      <c r="G6">
+        <v>0.002321198935318429</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0.3568173988916286</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1.351834048475041</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0.1762037765289648</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.7606942824760381</v>
+      </c>
+      <c r="E7">
+        <v>0.3465424744645134</v>
+      </c>
+      <c r="F7">
+        <v>8.230167166874878</v>
+      </c>
+      <c r="G7">
+        <v>0.002311956610156162</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0.359580229755295</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1.380020748618335</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0.2074802658006831</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.9184338710338693</v>
+      </c>
+      <c r="E8">
+        <v>0.424307433679374</v>
+      </c>
+      <c r="F8">
+        <v>9.773026510490354</v>
+      </c>
+      <c r="G8">
+        <v>0.002272544830137985</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0.3722062484302171</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1.504976964631908</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0.2684501888307409</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1.244365504398274</v>
+      </c>
+      <c r="E9">
+        <v>0.5848117695389448</v>
+      </c>
+      <c r="F9">
+        <v>12.97191919808239</v>
+      </c>
+      <c r="G9">
+        <v>0.002199816190164405</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0.3984893586954925</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1.75186015072677</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0.3129948669848943</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1.49817501341397</v>
+      </c>
+      <c r="E10">
+        <v>0.7098273924807614</v>
+      </c>
+      <c r="F10">
+        <v>15.46875785442182</v>
+      </c>
+      <c r="G10">
+        <v>0.00214875892039311</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0.4186982167615625</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1.93419659562025</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0.3331993617551348</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1.617845959707608</v>
+      </c>
+      <c r="E11">
+        <v>0.7688136130821306</v>
+      </c>
+      <c r="F11">
+        <v>16.64702618999752</v>
+      </c>
+      <c r="G11">
+        <v>0.002125945549857217</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0.4280806917633271</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>2.017317443662478</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0.3408412057246721</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1.663873063842175</v>
+      </c>
+      <c r="E12">
+        <v>0.7915099086972788</v>
+      </c>
+      <c r="F12">
+        <v>17.10032549300035</v>
+      </c>
+      <c r="G12">
+        <v>0.00211735638729819</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0.431660259156402</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>2.048815004509208</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0.3391958157675106</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1.653926892227219</v>
+      </c>
+      <c r="E13">
+        <v>0.7866049050619921</v>
+      </c>
+      <c r="F13">
+        <v>17.0023653813555</v>
+      </c>
+      <c r="G13">
+        <v>0.002119204169922707</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0.4308881605543888</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>2.042030543333738</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0.3338282482070838</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1.621617751266228</v>
+      </c>
+      <c r="E14">
+        <v>0.7706733026041235</v>
+      </c>
+      <c r="F14">
+        <v>16.68417052974985</v>
+      </c>
+      <c r="G14">
+        <v>0.002125237976614789</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0.4283746547067864</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>2.019908357050383</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0.3305392456624361</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1.601923321132119</v>
+      </c>
+      <c r="E15">
+        <v>0.7609633214939606</v>
+      </c>
+      <c r="F15">
+        <v>16.49022585936302</v>
+      </c>
+      <c r="G15">
+        <v>0.00212894003229566</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0.4268385096919047</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>2.006360570313262</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0.311673209885214</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1.490447620010002</v>
+      </c>
+      <c r="E16">
+        <v>0.7060196344223328</v>
+      </c>
+      <c r="F16">
+        <v>15.39269276297034</v>
+      </c>
+      <c r="G16">
+        <v>0.002150257341324077</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0.4180888088535966</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>1.928767661017872</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0.3000838993119999</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1.423209821040871</v>
+      </c>
+      <c r="E17">
+        <v>0.672892408822463</v>
+      </c>
+      <c r="F17">
+        <v>14.7309412752619</v>
+      </c>
+      <c r="G17">
+        <v>0.00216343409495481</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0.4127692216154273</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>1.881209144293678</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0.2934125106849024</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1.384925817277519</v>
+      </c>
+      <c r="E18">
+        <v>0.6540339565854651</v>
+      </c>
+      <c r="F18">
+        <v>14.35424649662457</v>
+      </c>
+      <c r="G18">
+        <v>0.002171052513261884</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0.4097273953838041</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>1.853871441567748</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0.2911527646049592</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1.372027423674069</v>
+      </c>
+      <c r="E19">
+        <v>0.6476808146103679</v>
+      </c>
+      <c r="F19">
+        <v>14.22734992692494</v>
+      </c>
+      <c r="G19">
+        <v>0.002173639036406534</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0.4087005711172083</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>1.844618345498588</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0.3013181776847773</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1.430326383861825</v>
+      </c>
+      <c r="E20">
+        <v>0.6763982537082001</v>
+      </c>
+      <c r="F20">
+        <v>14.8009724992794</v>
+      </c>
+      <c r="G20">
+        <v>0.002162027384752784</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0.4133336567285752</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>1.886270128092036</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0.3354050867552871</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1.631087546550361</v>
+      </c>
+      <c r="E21">
+        <v>0.7753425657400186</v>
+      </c>
+      <c r="F21">
+        <v>16.77743024407653</v>
+      </c>
+      <c r="G21">
+        <v>0.00212346443360316</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0.4291122144186588</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>2.026405625114535</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0.3576291578715995</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1.766496122056253</v>
+      </c>
+      <c r="E22">
+        <v>0.8421352034685583</v>
+      </c>
+      <c r="F22">
+        <v>18.1112013327471</v>
+      </c>
+      <c r="G22">
+        <v>0.002098546009986494</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0.4395793436413271</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>2.118115898853603</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0.3457728835225851</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1.693803338916723</v>
+      </c>
+      <c r="E23">
+        <v>0.8062718020248951</v>
+      </c>
+      <c r="F23">
+        <v>17.39512490472509</v>
+      </c>
+      <c r="G23">
+        <v>0.002111822893887206</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0.4339788619097433</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>2.069158297353852</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0.3007601869815915</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1.427107835139736</v>
+      </c>
+      <c r="E24">
+        <v>0.674812683368657</v>
+      </c>
+      <c r="F24">
+        <v>14.76929976168378</v>
+      </c>
+      <c r="G24">
+        <v>0.002162663223747259</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0.4130784242511822</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>1.883982043575145</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.2519980490933165</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1.154007660763</v>
+      </c>
+      <c r="E25">
+        <v>0.540321076699243</v>
+      </c>
+      <c r="F25">
+        <v>12.08402978244385</v>
+      </c>
+      <c r="G25">
+        <v>0.002219042285101898</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0.391219104399859</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1.684892220676289</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_50/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,40 +415,46 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.489429114186123</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.02716069438462654</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.4012814701533038</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.5590354391343979</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.472739621962134</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0004829421348261365</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.01101949792543744</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2722376763803851</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2962378728138306</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,125 +463,1235 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.6561107476513826</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>1.598781112290197</v>
+      </c>
+      <c r="Q2">
+        <v>1.525231150720401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="B3">
+        <v>1.304529828449716</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.02359889509096647</v>
+      </c>
+      <c r="E3">
+        <v>0.3803416775685236</v>
+      </c>
+      <c r="F3">
+        <v>0.4919330787470528</v>
+      </c>
+      <c r="G3">
+        <v>0.4126674901474416</v>
+      </c>
+      <c r="H3">
+        <v>0.001053140974825895</v>
+      </c>
+      <c r="I3">
+        <v>0.01264261602105732</v>
+      </c>
+      <c r="J3">
+        <v>0.2479287928000105</v>
+      </c>
+      <c r="K3">
+        <v>0.3080758698501036</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0.5721644713947001</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>1.51612681674888</v>
+      </c>
+      <c r="Q3">
+        <v>1.346685439958634</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="B4">
+        <v>1.19007726941075</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.02142047136707248</v>
+      </c>
+      <c r="E4">
+        <v>0.3675535124440721</v>
+      </c>
+      <c r="F4">
+        <v>0.4512299343177233</v>
+      </c>
+      <c r="G4">
+        <v>0.3761827082921201</v>
+      </c>
+      <c r="H4">
+        <v>0.001530228804349054</v>
+      </c>
+      <c r="I4">
+        <v>0.01376440515845445</v>
+      </c>
+      <c r="J4">
+        <v>0.2332930292570552</v>
+      </c>
+      <c r="K4">
+        <v>0.3157060899085913</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0.5207383691449365</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>1.466467347516897</v>
+      </c>
+      <c r="Q4">
+        <v>1.23850246522565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="B5">
+        <v>1.141680090011533</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.02054690923075242</v>
+      </c>
+      <c r="E5">
+        <v>0.3626902634676092</v>
+      </c>
+      <c r="F5">
+        <v>0.4346071130467095</v>
+      </c>
+      <c r="G5">
+        <v>0.3612450370402343</v>
+      </c>
+      <c r="H5">
+        <v>0.001756488931185407</v>
+      </c>
+      <c r="I5">
+        <v>0.01434056661847372</v>
+      </c>
+      <c r="J5">
+        <v>0.2273145617407692</v>
+      </c>
+      <c r="K5">
+        <v>0.3189125788274998</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0.5003480793992878</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1.448007677022986</v>
+      </c>
+      <c r="Q5">
+        <v>1.1942366600897</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="B6">
+        <v>1.131759317567401</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.02041703987798371</v>
+      </c>
+      <c r="E6">
+        <v>0.3622940204805296</v>
+      </c>
+      <c r="F6">
+        <v>0.4316706048966878</v>
+      </c>
+      <c r="G6">
+        <v>0.3585747774336028</v>
+      </c>
+      <c r="H6">
+        <v>0.001797572091743915</v>
+      </c>
+      <c r="I6">
+        <v>0.01455343375132845</v>
+      </c>
+      <c r="J6">
+        <v>0.2262251375103688</v>
+      </c>
+      <c r="K6">
+        <v>0.3194628845474048</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0.4976258649559782</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>1.446811864605408</v>
+      </c>
+      <c r="Q6">
+        <v>1.186281255203824</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="B7">
+        <v>1.184300782043664</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.02144996239561081</v>
+      </c>
+      <c r="E7">
+        <v>0.3686152486822039</v>
+      </c>
+      <c r="F7">
+        <v>0.4505055208460931</v>
+      </c>
+      <c r="G7">
+        <v>0.3754477561885921</v>
+      </c>
+      <c r="H7">
+        <v>0.001537323882112973</v>
+      </c>
+      <c r="I7">
+        <v>0.01407095731309749</v>
+      </c>
+      <c r="J7">
+        <v>0.2329371848635304</v>
+      </c>
+      <c r="K7">
+        <v>0.3157901400554515</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0.5222746261643465</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>1.471311472965652</v>
+      </c>
+      <c r="Q7">
+        <v>1.236198391191891</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="B8">
+        <v>1.419033752031851</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.02598564963758321</v>
+      </c>
+      <c r="E8">
+        <v>0.3955686371809506</v>
+      </c>
+      <c r="F8">
+        <v>0.5351246992521439</v>
+      </c>
+      <c r="G8">
+        <v>0.4512289419647146</v>
+      </c>
+      <c r="H8">
+        <v>0.000655558128422995</v>
+      </c>
+      <c r="I8">
+        <v>0.01191482010491551</v>
+      </c>
+      <c r="J8">
+        <v>0.2634289993496566</v>
+      </c>
+      <c r="K8">
+        <v>0.30033701527974</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0.6295507891278618</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>1.576940322456579</v>
+      </c>
+      <c r="Q8">
+        <v>1.461085550805848</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="B9">
+        <v>1.881100665088894</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.03488755491027007</v>
+      </c>
+      <c r="E9">
+        <v>0.4470523241294657</v>
+      </c>
+      <c r="F9">
+        <v>0.7064796729071503</v>
+      </c>
+      <c r="G9">
+        <v>0.6044974857479701</v>
+      </c>
+      <c r="H9">
+        <v>4.382152795079364E-07</v>
+      </c>
+      <c r="I9">
+        <v>0.008261338433102949</v>
+      </c>
+      <c r="J9">
+        <v>0.3262538313185672</v>
+      </c>
+      <c r="K9">
+        <v>0.2728450656673251</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.8377634036758081</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>1.783712649509795</v>
+      </c>
+      <c r="Q9">
+        <v>1.91823914344414</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="B10">
+        <v>2.192655482762063</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0.04186317116794669</v>
+      </c>
+      <c r="E10">
+        <v>0.496796260102947</v>
+      </c>
+      <c r="F10">
+        <v>0.8316634512920587</v>
+      </c>
+      <c r="G10">
+        <v>0.7155304260482325</v>
+      </c>
+      <c r="H10">
+        <v>0.0004238048349871626</v>
+      </c>
+      <c r="I10">
+        <v>0.006487222869619558</v>
+      </c>
+      <c r="J10">
+        <v>0.3719934289482012</v>
+      </c>
+      <c r="K10">
+        <v>0.2554594790753653</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0.9688680488268062</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>1.966135051771687</v>
+      </c>
+      <c r="Q10">
+        <v>2.24985413172422</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="B11">
+        <v>2.147002164030994</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.04823927984786991</v>
+      </c>
+      <c r="E11">
+        <v>0.6331064284350987</v>
+      </c>
+      <c r="F11">
+        <v>0.8532401479566545</v>
+      </c>
+      <c r="G11">
+        <v>0.7280702957473295</v>
+      </c>
+      <c r="H11">
+        <v>0.01894102725745483</v>
+      </c>
+      <c r="I11">
+        <v>0.006831477101264305</v>
+      </c>
+      <c r="J11">
+        <v>0.3737619583985037</v>
+      </c>
+      <c r="K11">
+        <v>0.2622877973565956</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0.8334522457424214</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>2.263533542354054</v>
+      </c>
+      <c r="Q11">
+        <v>2.280351915627847</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="B12">
+        <v>2.05114963839344</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0.05224857896953239</v>
+      </c>
+      <c r="E12">
+        <v>0.7599341595330742</v>
+      </c>
+      <c r="F12">
+        <v>0.8450127321802512</v>
+      </c>
+      <c r="G12">
+        <v>0.7154862188721154</v>
+      </c>
+      <c r="H12">
+        <v>0.05754902384019545</v>
+      </c>
+      <c r="I12">
+        <v>0.006927859666743252</v>
+      </c>
+      <c r="J12">
+        <v>0.3656206886900719</v>
+      </c>
+      <c r="K12">
+        <v>0.2794216184811305</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0.6993885987680244</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>2.485087684958273</v>
+      </c>
+      <c r="Q12">
+        <v>2.236716135826299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="B13">
+        <v>1.903777535252459</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0.05468921525410764</v>
+      </c>
+      <c r="E13">
+        <v>0.8869180267652297</v>
+      </c>
+      <c r="F13">
+        <v>0.8122473882410901</v>
+      </c>
+      <c r="G13">
+        <v>0.681740742798624</v>
+      </c>
+      <c r="H13">
+        <v>0.1132084910984474</v>
+      </c>
+      <c r="I13">
+        <v>0.007279831310810891</v>
+      </c>
+      <c r="J13">
+        <v>0.3488058964990017</v>
+      </c>
+      <c r="K13">
+        <v>0.3049525449939807</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0.5622968456204376</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>2.666333354074709</v>
+      </c>
+      <c r="Q13">
+        <v>2.129970086992074</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="B14">
+        <v>1.776840634991032</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0.05570219506714835</v>
+      </c>
+      <c r="E14">
+        <v>0.9786179589331567</v>
+      </c>
+      <c r="F14">
+        <v>0.7781803620214873</v>
+      </c>
+      <c r="G14">
+        <v>0.648546224478082</v>
+      </c>
+      <c r="H14">
+        <v>0.1624880578029604</v>
+      </c>
+      <c r="I14">
+        <v>0.007740687336625918</v>
+      </c>
+      <c r="J14">
+        <v>0.3330934542923671</v>
+      </c>
+      <c r="K14">
+        <v>0.3276333678574872</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0.4677294637557168</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>2.777527569148475</v>
+      </c>
+      <c r="Q14">
+        <v>2.026659992597587</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="B15">
+        <v>1.733352437253103</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0.0556054628725704</v>
+      </c>
+      <c r="E15">
+        <v>0.9985546856253222</v>
+      </c>
+      <c r="F15">
+        <v>0.7645910450524269</v>
+      </c>
+      <c r="G15">
+        <v>0.6358577011110214</v>
+      </c>
+      <c r="H15">
+        <v>0.1749682633994638</v>
+      </c>
+      <c r="I15">
+        <v>0.00805193870618659</v>
+      </c>
+      <c r="J15">
+        <v>0.3273810344996093</v>
+      </c>
+      <c r="K15">
+        <v>0.3342839143321896</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0.4433618826547416</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>2.796019906438175</v>
+      </c>
+      <c r="Q15">
+        <v>1.987770598890819</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1.630560226924956</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0.05202346857859652</v>
+      </c>
+      <c r="E16">
+        <v>0.9479490992423933</v>
+      </c>
+      <c r="F16">
+        <v>0.7166922234283533</v>
+      </c>
+      <c r="G16">
+        <v>0.5944295300492257</v>
+      </c>
+      <c r="H16">
+        <v>0.1620824762334649</v>
+      </c>
+      <c r="I16">
+        <v>0.008950951539635099</v>
+      </c>
+      <c r="J16">
+        <v>0.3107661859199027</v>
+      </c>
+      <c r="K16">
+        <v>0.3349563424199111</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0.4196700146484034</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>2.675259966193153</v>
+      </c>
+      <c r="Q16">
+        <v>1.864962402706226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1.61820315224864</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0.04874965962125799</v>
+      </c>
+      <c r="E17">
+        <v>0.8591414285597239</v>
+      </c>
+      <c r="F17">
+        <v>0.6982605800573367</v>
+      </c>
+      <c r="G17">
+        <v>0.5804301995528647</v>
+      </c>
+      <c r="H17">
+        <v>0.1242317329515288</v>
+      </c>
+      <c r="I17">
+        <v>0.009418706439028313</v>
+      </c>
+      <c r="J17">
+        <v>0.3064657286779067</v>
+      </c>
+      <c r="K17">
+        <v>0.3230904564043549</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0.4501980940947163</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>2.524129475676972</v>
+      </c>
+      <c r="Q17">
+        <v>1.826151801371083</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1.687046248853676</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0.04538547161821782</v>
+      </c>
+      <c r="E18">
+        <v>0.7362817025962158</v>
+      </c>
+      <c r="F18">
+        <v>0.7030589744271083</v>
+      </c>
+      <c r="G18">
+        <v>0.588575616551438</v>
+      </c>
+      <c r="H18">
+        <v>0.07139006184573304</v>
+      </c>
+      <c r="I18">
+        <v>0.00918847351118135</v>
+      </c>
+      <c r="J18">
+        <v>0.3122891730718038</v>
+      </c>
+      <c r="K18">
+        <v>0.3019330482175988</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0.5356612315916465</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>2.331152510247335</v>
+      </c>
+      <c r="Q18">
+        <v>1.855530636292031</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>1.809083753684746</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0.04236144192390867</v>
+      </c>
+      <c r="E19">
+        <v>0.6147234236748957</v>
+      </c>
+      <c r="F19">
+        <v>0.7251406194597223</v>
+      </c>
+      <c r="G19">
+        <v>0.6130205156270421</v>
+      </c>
+      <c r="H19">
+        <v>0.02617237337513245</v>
+      </c>
+      <c r="I19">
+        <v>0.008980497468572324</v>
+      </c>
+      <c r="J19">
+        <v>0.3252766150531841</v>
+      </c>
+      <c r="K19">
+        <v>0.281902965069925</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0.671437206050939</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>2.141026228792924</v>
+      </c>
+      <c r="Q19">
+        <v>1.934510788148316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>2.09407815463311</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0.04017155632154612</v>
+      </c>
+      <c r="E20">
+        <v>0.4879458377970067</v>
+      </c>
+      <c r="F20">
+        <v>0.7967777973258876</v>
+      </c>
+      <c r="G20">
+        <v>0.6842812062044032</v>
+      </c>
+      <c r="H20">
+        <v>0.0002402037001845159</v>
+      </c>
+      <c r="I20">
+        <v>0.007810961522611848</v>
+      </c>
+      <c r="J20">
+        <v>0.3588943297148859</v>
+      </c>
+      <c r="K20">
+        <v>0.260442432437169</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0.9391205930544686</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>1.935785985020146</v>
+      </c>
+      <c r="Q20">
+        <v>2.156063282110949</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>2.366680063999752</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0.044993843867843</v>
+      </c>
+      <c r="E21">
+        <v>0.5090838798446526</v>
+      </c>
+      <c r="F21">
+        <v>0.900840596141407</v>
+      </c>
+      <c r="G21">
+        <v>0.7777719272476133</v>
+      </c>
+      <c r="H21">
+        <v>0.0006225547077766125</v>
+      </c>
+      <c r="I21">
+        <v>0.006371762157346694</v>
+      </c>
+      <c r="J21">
+        <v>0.3982604148614257</v>
+      </c>
+      <c r="K21">
+        <v>0.2463862077840382</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>1.075588479039737</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>2.040637478233037</v>
+      </c>
+      <c r="Q21">
+        <v>2.437022087771709</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>2.540308088638596</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0.04828508908354223</v>
+      </c>
+      <c r="E22">
+        <v>0.5269778089894999</v>
+      </c>
+      <c r="F22">
+        <v>0.9683756165076574</v>
+      </c>
+      <c r="G22">
+        <v>0.8381762990577926</v>
+      </c>
+      <c r="H22">
+        <v>0.001107335687776323</v>
+      </c>
+      <c r="I22">
+        <v>0.005257117297072789</v>
+      </c>
+      <c r="J22">
+        <v>0.423697010820419</v>
+      </c>
+      <c r="K22">
+        <v>0.2378101391734928</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>1.15054898945786</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>2.114371947365981</v>
+      </c>
+      <c r="Q22">
+        <v>2.618548457431842</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>2.453921032901519</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0.04647661856353835</v>
+      </c>
+      <c r="E23">
+        <v>0.5159676876975539</v>
+      </c>
+      <c r="F23">
+        <v>0.9328330884385423</v>
+      </c>
+      <c r="G23">
+        <v>0.8064916659439518</v>
+      </c>
+      <c r="H23">
+        <v>0.0008346364048285038</v>
+      </c>
+      <c r="I23">
+        <v>0.005497546911954032</v>
+      </c>
+      <c r="J23">
+        <v>0.4103990802310591</v>
+      </c>
+      <c r="K23">
+        <v>0.2421506195328469</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>1.108333311647328</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>2.068383833537496</v>
+      </c>
+      <c r="Q23">
+        <v>2.52342210861255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>2.115285960625897</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0.03974484819590174</v>
+      </c>
+      <c r="E24">
+        <v>0.4769078949464216</v>
+      </c>
+      <c r="F24">
+        <v>0.7992119777290441</v>
+      </c>
+      <c r="G24">
+        <v>0.6871801627406029</v>
+      </c>
+      <c r="H24">
+        <v>0.0001406448006804339</v>
+      </c>
+      <c r="I24">
+        <v>0.007219485400249859</v>
+      </c>
+      <c r="J24">
+        <v>0.3604810990410527</v>
+      </c>
+      <c r="K24">
+        <v>0.259691411662363</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0.9523575555014077</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>1.906887580070759</v>
+      </c>
+      <c r="Q24">
+        <v>2.165524642983485</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1.747511180313097</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0.03254427847573993</v>
+      </c>
+      <c r="E25">
+        <v>0.4351682498220413</v>
+      </c>
+      <c r="F25">
+        <v>0.6586470554499186</v>
+      </c>
+      <c r="G25">
+        <v>0.5615884797131656</v>
+      </c>
+      <c r="H25">
+        <v>5.322611783442621E-05</v>
+      </c>
+      <c r="I25">
+        <v>0.009637352601346905</v>
+      </c>
+      <c r="J25">
+        <v>0.3084544885592919</v>
+      </c>
+      <c r="K25">
+        <v>0.2801630951294989</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.7846099466163139</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>1.73643265530518</v>
+      </c>
+      <c r="Q25">
+        <v>1.789828065863219</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_50/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.489429114186123</v>
+        <v>1.513458739858237</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02716069438462654</v>
+        <v>0.02711950303265809</v>
       </c>
       <c r="E2">
-        <v>0.4012814701533038</v>
+        <v>0.3626313911077403</v>
       </c>
       <c r="F2">
-        <v>0.5590354391343979</v>
+        <v>0.5634602289235673</v>
       </c>
       <c r="G2">
-        <v>0.472739621962134</v>
+        <v>0.4767908648154133</v>
       </c>
       <c r="H2">
-        <v>0.0004829421348261365</v>
+        <v>0.0001538701444890878</v>
       </c>
       <c r="I2">
-        <v>0.01101949792543744</v>
+        <v>0.007346436862496475</v>
       </c>
       <c r="J2">
-        <v>0.2722376763803851</v>
+        <v>0.3227871819724868</v>
       </c>
       <c r="K2">
-        <v>0.2962378728138306</v>
+        <v>0.2672981614927474</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1159445520862131</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.08763242865747145</v>
       </c>
       <c r="N2">
-        <v>0.6561107476513826</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>1.598781112290197</v>
+        <v>0.644776638108965</v>
       </c>
       <c r="Q2">
-        <v>1.525231150720401</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>1.53373867504645</v>
+      </c>
+      <c r="S2">
+        <v>1.542633098032468</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.304529828449716</v>
+        <v>1.330560169080911</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02359889509096647</v>
+        <v>0.02349857600567873</v>
       </c>
       <c r="E3">
-        <v>0.3803416775685236</v>
+        <v>0.3414383259213736</v>
       </c>
       <c r="F3">
-        <v>0.4919330787470528</v>
+        <v>0.4971668933789104</v>
       </c>
       <c r="G3">
-        <v>0.4126674901474416</v>
+        <v>0.4149473869399998</v>
       </c>
       <c r="H3">
-        <v>0.001053140974825895</v>
+        <v>0.0004956396939501673</v>
       </c>
       <c r="I3">
-        <v>0.01264261602105732</v>
+        <v>0.008465773912107011</v>
       </c>
       <c r="J3">
-        <v>0.2479287928000105</v>
+        <v>0.2989678087964194</v>
       </c>
       <c r="K3">
-        <v>0.3080758698501036</v>
+        <v>0.2774092044919487</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1194144775061723</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.09353329511528408</v>
       </c>
       <c r="N3">
-        <v>0.5721644713947001</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>1.51612681674888</v>
+        <v>0.5598938652621115</v>
       </c>
       <c r="Q3">
-        <v>1.346685439958634</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>1.445818304899163</v>
+      </c>
+      <c r="S3">
+        <v>1.366645643626725</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.19007726941075</v>
+        <v>1.21702394374887</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02142047136707248</v>
+        <v>0.02128636296250974</v>
       </c>
       <c r="E4">
-        <v>0.3675535124440721</v>
+        <v>0.3285710977042697</v>
       </c>
       <c r="F4">
-        <v>0.4512299343177233</v>
+        <v>0.4568983389009844</v>
       </c>
       <c r="G4">
-        <v>0.3761827082921201</v>
+        <v>0.3774016448499253</v>
       </c>
       <c r="H4">
-        <v>0.001530228804349054</v>
+        <v>0.0008143759601607625</v>
       </c>
       <c r="I4">
-        <v>0.01376440515845445</v>
+        <v>0.009257653811246769</v>
       </c>
       <c r="J4">
-        <v>0.2332930292570552</v>
+        <v>0.2844734456592022</v>
       </c>
       <c r="K4">
-        <v>0.3157060899085913</v>
+        <v>0.2839510254718776</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1219799850062748</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.09747337063834127</v>
       </c>
       <c r="N4">
-        <v>0.5207383691449365</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1.466467347516897</v>
+        <v>0.5079791568324623</v>
       </c>
       <c r="Q4">
-        <v>1.23850246522565</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>1.393173679516707</v>
+      </c>
+      <c r="S4">
+        <v>1.259823329065455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.141680090011533</v>
+        <v>1.169002999863068</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02054690923075242</v>
+        <v>0.02039864531499447</v>
       </c>
       <c r="E5">
-        <v>0.3626902634676092</v>
+        <v>0.3236522858533277</v>
       </c>
       <c r="F5">
-        <v>0.4346071130467095</v>
+        <v>0.440447636706196</v>
       </c>
       <c r="G5">
-        <v>0.3612450370402343</v>
+        <v>0.3620480641365162</v>
       </c>
       <c r="H5">
-        <v>0.001756488931185407</v>
+        <v>0.0009713499914708601</v>
       </c>
       <c r="I5">
-        <v>0.01434056661847372</v>
+        <v>0.009704422116292299</v>
       </c>
       <c r="J5">
-        <v>0.2273145617407692</v>
+        <v>0.2785180660687132</v>
       </c>
       <c r="K5">
-        <v>0.3189125788274998</v>
+        <v>0.2866763348587971</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1230562527436576</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.0992179095588499</v>
       </c>
       <c r="N5">
-        <v>0.5003480793992878</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1.448007677022986</v>
+        <v>0.4873690464674212</v>
       </c>
       <c r="Q5">
-        <v>1.1942366600897</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>1.373411234509234</v>
+      </c>
+      <c r="S5">
+        <v>1.216094633509925</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.131759317567401</v>
+        <v>1.159239117346772</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02041703987798371</v>
+        <v>0.02026523161442384</v>
       </c>
       <c r="E6">
-        <v>0.3622940204805296</v>
+        <v>0.3231956568903875</v>
       </c>
       <c r="F6">
-        <v>0.4316706048966878</v>
+        <v>0.4375507328240218</v>
       </c>
       <c r="G6">
-        <v>0.3585747774336028</v>
+        <v>0.3593228163501152</v>
       </c>
       <c r="H6">
-        <v>0.001797572091743915</v>
+        <v>0.001000211103891868</v>
       </c>
       <c r="I6">
-        <v>0.01455343375132845</v>
+        <v>0.009909341555095708</v>
       </c>
       <c r="J6">
-        <v>0.2262251375103688</v>
+        <v>0.2774339610316474</v>
       </c>
       <c r="K6">
-        <v>0.3194628845474048</v>
+        <v>0.2871086187357728</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1231476789891461</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.09958544326650198</v>
       </c>
       <c r="N6">
-        <v>0.4976258649559782</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>1.446811864605408</v>
+        <v>0.4845593065871157</v>
       </c>
       <c r="Q6">
-        <v>1.186281255203824</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>1.371819706534993</v>
+      </c>
+      <c r="S6">
+        <v>1.208265172181399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.184300782043664</v>
+        <v>1.211194735256015</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02144996239561081</v>
+        <v>0.02140546126930687</v>
       </c>
       <c r="E7">
-        <v>0.3686152486822039</v>
+        <v>0.3291404319998179</v>
       </c>
       <c r="F7">
-        <v>0.4505055208460931</v>
+        <v>0.4550932678362614</v>
       </c>
       <c r="G7">
-        <v>0.3754477561885921</v>
+        <v>0.3803079960230349</v>
       </c>
       <c r="H7">
-        <v>0.001537323882112973</v>
+        <v>0.000820666184456087</v>
       </c>
       <c r="I7">
-        <v>0.01407095731309749</v>
+        <v>0.009600266764618226</v>
       </c>
       <c r="J7">
-        <v>0.2329371848635304</v>
+        <v>0.2784362003409058</v>
       </c>
       <c r="K7">
-        <v>0.3157901400554515</v>
+        <v>0.2839357078588538</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1217511368196957</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.09769492152815928</v>
       </c>
       <c r="N7">
-        <v>0.5222746261643465</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>1.471311472965652</v>
+        <v>0.5088987133717353</v>
       </c>
       <c r="Q7">
-        <v>1.236198391191891</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>1.397837951821487</v>
+      </c>
+      <c r="S7">
+        <v>1.253836664446197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.419033752031851</v>
+        <v>1.443092357438076</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02598564963758321</v>
+        <v>0.02623297751826925</v>
       </c>
       <c r="E8">
-        <v>0.3955686371809506</v>
+        <v>0.3554563491228429</v>
       </c>
       <c r="F8">
-        <v>0.5351246992521439</v>
+        <v>0.5361505390168801</v>
       </c>
       <c r="G8">
-        <v>0.4512289419647146</v>
+        <v>0.4668463243793894</v>
       </c>
       <c r="H8">
-        <v>0.000655558128422995</v>
+        <v>0.0002525480299070404</v>
       </c>
       <c r="I8">
-        <v>0.01191482010491551</v>
+        <v>0.008124094133616033</v>
       </c>
       <c r="J8">
-        <v>0.2634289993496566</v>
+        <v>0.2954091323697128</v>
       </c>
       <c r="K8">
-        <v>0.30033701527974</v>
+        <v>0.2707323606435756</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1168393378401603</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.08981705170366538</v>
       </c>
       <c r="N8">
-        <v>0.6295507891278618</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>1.576940322456579</v>
+        <v>0.616106643923203</v>
       </c>
       <c r="Q8">
-        <v>1.461085550805848</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>1.510546360483104</v>
+      </c>
+      <c r="S8">
+        <v>1.466853698549585</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.881100665088894</v>
+        <v>1.897775769359811</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03488755491027007</v>
+        <v>0.03539403864905211</v>
       </c>
       <c r="E9">
-        <v>0.4470523241294657</v>
+        <v>0.4077839994000385</v>
       </c>
       <c r="F9">
-        <v>0.7064796729071503</v>
+        <v>0.7039654577847472</v>
       </c>
       <c r="G9">
-        <v>0.6044974857479701</v>
+        <v>0.6282218149792698</v>
       </c>
       <c r="H9">
-        <v>4.382152795079364E-07</v>
+        <v>5.715959932228731E-05</v>
       </c>
       <c r="I9">
-        <v>0.008261338433102949</v>
+        <v>0.005565612982096901</v>
       </c>
       <c r="J9">
-        <v>0.3262538313185672</v>
+        <v>0.3505902246151749</v>
       </c>
       <c r="K9">
-        <v>0.2728450656673251</v>
+        <v>0.2475295244257021</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1109300900223635</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.07663199426127676</v>
       </c>
       <c r="N9">
-        <v>0.8377634036758081</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>1.783712649509795</v>
+        <v>0.8268150319731262</v>
       </c>
       <c r="Q9">
-        <v>1.91823914344414</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>1.732747082934139</v>
+      </c>
+      <c r="S9">
+        <v>1.91247917518038</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.192655482762063</v>
+        <v>2.203633307462781</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04186317116794669</v>
+        <v>0.04312300757727883</v>
       </c>
       <c r="E10">
-        <v>0.496796260102947</v>
+        <v>0.4552617452160419</v>
       </c>
       <c r="F10">
-        <v>0.8316634512920587</v>
+        <v>0.8197723151262011</v>
       </c>
       <c r="G10">
-        <v>0.7155304260482325</v>
+        <v>0.7678473401641668</v>
       </c>
       <c r="H10">
-        <v>0.0004238048349871626</v>
+        <v>0.0006923386441459733</v>
       </c>
       <c r="I10">
-        <v>0.006487222869619558</v>
+        <v>0.004485697586254389</v>
       </c>
       <c r="J10">
-        <v>0.3719934289482012</v>
+        <v>0.3576790587435994</v>
       </c>
       <c r="K10">
-        <v>0.2554594790753653</v>
+        <v>0.2330560573306428</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1090716354478296</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.0687451092970095</v>
       </c>
       <c r="N10">
-        <v>0.9688680488268062</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>1.966135051771687</v>
+        <v>0.9561629731218204</v>
       </c>
       <c r="Q10">
-        <v>2.24985413172422</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>1.92613782482448</v>
+      </c>
+      <c r="S10">
+        <v>2.21266532345544</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.147002164030994</v>
+        <v>2.178825231935718</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04823927984786991</v>
+        <v>0.05071501812541612</v>
       </c>
       <c r="E11">
-        <v>0.6331064284350987</v>
+        <v>0.5742381896999191</v>
       </c>
       <c r="F11">
-        <v>0.8532401479566545</v>
+        <v>0.8283340633142444</v>
       </c>
       <c r="G11">
-        <v>0.7280702957473295</v>
+        <v>0.8345537161242476</v>
       </c>
       <c r="H11">
-        <v>0.01894102725745483</v>
+        <v>0.01916604161256785</v>
       </c>
       <c r="I11">
-        <v>0.006831477101264305</v>
+        <v>0.005034105105790943</v>
       </c>
       <c r="J11">
-        <v>0.3737619583985037</v>
+        <v>0.2938214204043419</v>
       </c>
       <c r="K11">
-        <v>0.2622877973565956</v>
+        <v>0.238462250697614</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1140485136495641</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.06860072185567212</v>
       </c>
       <c r="N11">
-        <v>0.8334522457424214</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>2.263533542354054</v>
+        <v>0.8073418290537973</v>
       </c>
       <c r="Q11">
-        <v>2.280351915627847</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>2.19931534730614</v>
+      </c>
+      <c r="S11">
+        <v>2.199668265025707</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.05114963839344</v>
+        <v>2.102037196743765</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.05224857896953239</v>
+        <v>0.05526999542717448</v>
       </c>
       <c r="E12">
-        <v>0.7599341595330742</v>
+        <v>0.6841885566190982</v>
       </c>
       <c r="F12">
-        <v>0.8450127321802512</v>
+        <v>0.8153106516588622</v>
       </c>
       <c r="G12">
-        <v>0.7154862188721154</v>
+        <v>0.8475410998069464</v>
       </c>
       <c r="H12">
-        <v>0.05754902384019545</v>
+        <v>0.05773691258360003</v>
       </c>
       <c r="I12">
-        <v>0.006927859666743252</v>
+        <v>0.005109048561720897</v>
       </c>
       <c r="J12">
-        <v>0.3656206886900719</v>
+        <v>0.2596728253528937</v>
       </c>
       <c r="K12">
-        <v>0.2794216184811305</v>
+        <v>0.2516973005143122</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1209820931224801</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.07186782171389794</v>
       </c>
       <c r="N12">
-        <v>0.6993885987680244</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>2.485087684958273</v>
+        <v>0.6660559738396046</v>
       </c>
       <c r="Q12">
-        <v>2.236716135826299</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>2.393267951023375</v>
+      </c>
+      <c r="S12">
+        <v>2.140377711752336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.903777535252459</v>
+        <v>1.974515791712349</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.05468921525410764</v>
+        <v>0.05739735883332031</v>
       </c>
       <c r="E13">
-        <v>0.8869180267652297</v>
+        <v>0.7961229182087948</v>
       </c>
       <c r="F13">
-        <v>0.8122473882410901</v>
+        <v>0.7867082626547841</v>
       </c>
       <c r="G13">
-        <v>0.681740742798624</v>
+        <v>0.8082162142766265</v>
       </c>
       <c r="H13">
-        <v>0.1132084910984474</v>
+        <v>0.1133554998976933</v>
       </c>
       <c r="I13">
-        <v>0.007279831310810891</v>
+        <v>0.005326047787317378</v>
       </c>
       <c r="J13">
-        <v>0.3488058964990017</v>
+        <v>0.253388123817615</v>
       </c>
       <c r="K13">
-        <v>0.3049525449939807</v>
+        <v>0.2706815582040356</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1285879620476891</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.07824217035388692</v>
       </c>
       <c r="N13">
-        <v>0.5622968456204376</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>2.666333354074709</v>
+        <v>0.526440939272689</v>
       </c>
       <c r="Q13">
-        <v>2.129970086992074</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>2.540551341944052</v>
+      </c>
+      <c r="S13">
+        <v>2.047909468171753</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.776840634991032</v>
+        <v>1.861461687307809</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.05570219506714835</v>
+        <v>0.05778654196597444</v>
       </c>
       <c r="E14">
-        <v>0.9786179589331567</v>
+        <v>0.8782061712630309</v>
       </c>
       <c r="F14">
-        <v>0.7781803620214873</v>
+        <v>0.7593363963816131</v>
       </c>
       <c r="G14">
-        <v>0.648546224478082</v>
+        <v>0.7580622506375931</v>
       </c>
       <c r="H14">
-        <v>0.1624880578029604</v>
+        <v>0.1626035451506169</v>
       </c>
       <c r="I14">
-        <v>0.007740687336625918</v>
+        <v>0.00565353729214646</v>
       </c>
       <c r="J14">
-        <v>0.3330934542923671</v>
+        <v>0.2603545632449595</v>
       </c>
       <c r="K14">
-        <v>0.3276333678574872</v>
+        <v>0.2870863111184079</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.134134081441438</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.08458270533375334</v>
       </c>
       <c r="N14">
-        <v>0.4677294637557168</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>2.777527569148475</v>
+        <v>0.432040965987369</v>
       </c>
       <c r="Q14">
-        <v>2.026659992597587</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>2.62435936103094</v>
+      </c>
+      <c r="S14">
+        <v>1.967071826272189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.733352437253103</v>
+        <v>1.821500425470418</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.0556054628725704</v>
+        <v>0.05736763878326201</v>
       </c>
       <c r="E15">
-        <v>0.9985546856253222</v>
+        <v>0.8966999871761345</v>
       </c>
       <c r="F15">
-        <v>0.7645910450524269</v>
+        <v>0.7489948646279601</v>
       </c>
       <c r="G15">
-        <v>0.6358577011110214</v>
+        <v>0.7357892289796411</v>
       </c>
       <c r="H15">
-        <v>0.1749682633994638</v>
+        <v>0.1750690418914331</v>
       </c>
       <c r="I15">
-        <v>0.00805193870618659</v>
+        <v>0.005924453827312881</v>
       </c>
       <c r="J15">
-        <v>0.3273810344996093</v>
+        <v>0.2669021199243673</v>
       </c>
       <c r="K15">
-        <v>0.3342839143321896</v>
+        <v>0.2917833642718648</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1352990301158741</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.08673289157008668</v>
       </c>
       <c r="N15">
-        <v>0.4433618826547416</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>2.796019906438175</v>
+        <v>0.4082624065954974</v>
       </c>
       <c r="Q15">
-        <v>1.987770598890819</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>2.635155766086967</v>
+      </c>
+      <c r="S15">
+        <v>1.938999193785236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.630560226924956</v>
+        <v>1.719231723076803</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.05202346857859652</v>
+        <v>0.0524473360247697</v>
       </c>
       <c r="E16">
-        <v>0.9479490992423933</v>
+        <v>0.8564795248207702</v>
       </c>
       <c r="F16">
-        <v>0.7166922234283533</v>
+        <v>0.7143624134317292</v>
       </c>
       <c r="G16">
-        <v>0.5944295300492257</v>
+        <v>0.6495383840167932</v>
       </c>
       <c r="H16">
-        <v>0.1620824762334649</v>
+        <v>0.1620930019093265</v>
       </c>
       <c r="I16">
-        <v>0.008950951539635099</v>
+        <v>0.006563278859385235</v>
       </c>
       <c r="J16">
-        <v>0.3107661859199027</v>
+        <v>0.308082200712164</v>
       </c>
       <c r="K16">
-        <v>0.3349563424199111</v>
+        <v>0.2913342468684341</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1311647698107876</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.08965001358435565</v>
       </c>
       <c r="N16">
-        <v>0.4196700146484034</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>2.675259966193153</v>
+        <v>0.3889622276609686</v>
       </c>
       <c r="Q16">
-        <v>1.864962402706226</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>2.511939015376583</v>
+      </c>
+      <c r="S16">
+        <v>1.860201551847467</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.61820315224864</v>
+        <v>1.699728176490311</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.04874965962125799</v>
+        <v>0.04870480329885396</v>
       </c>
       <c r="E17">
-        <v>0.8591414285597239</v>
+        <v>0.7792381513717856</v>
       </c>
       <c r="F17">
-        <v>0.6982605800573367</v>
+        <v>0.7008465938861121</v>
       </c>
       <c r="G17">
-        <v>0.5804301995528647</v>
+        <v>0.6159070599152727</v>
       </c>
       <c r="H17">
-        <v>0.1242317329515288</v>
+        <v>0.1241851639368292</v>
       </c>
       <c r="I17">
-        <v>0.009418706439028313</v>
+        <v>0.006905929988306525</v>
       </c>
       <c r="J17">
-        <v>0.3064657286779067</v>
+        <v>0.3295767357582378</v>
       </c>
       <c r="K17">
-        <v>0.3230904564043549</v>
+        <v>0.2824963773209674</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1256469062283028</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.08818562185798662</v>
       </c>
       <c r="N17">
-        <v>0.4501980940947163</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>2.524129475676972</v>
+        <v>0.42240383013106</v>
       </c>
       <c r="Q17">
-        <v>1.826151801371083</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>2.374848042490299</v>
+      </c>
+      <c r="S17">
+        <v>1.837731083276651</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.687046248853676</v>
+        <v>1.754257966759468</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.04538547161821782</v>
+        <v>0.04528861359541025</v>
       </c>
       <c r="E18">
-        <v>0.7362817025962158</v>
+        <v>0.6705247157439089</v>
       </c>
       <c r="F18">
-        <v>0.7030589744271083</v>
+        <v>0.7065392208336903</v>
       </c>
       <c r="G18">
-        <v>0.588575616551438</v>
+        <v>0.6144748869049295</v>
       </c>
       <c r="H18">
-        <v>0.07139006184573304</v>
+        <v>0.0713367857728997</v>
       </c>
       <c r="I18">
-        <v>0.00918847351118135</v>
+        <v>0.006621373732084379</v>
       </c>
       <c r="J18">
-        <v>0.3122891730718038</v>
+        <v>0.346073802987064</v>
       </c>
       <c r="K18">
-        <v>0.3019330482175988</v>
+        <v>0.2672678023976172</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1190793922541928</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.08326385043835671</v>
       </c>
       <c r="N18">
-        <v>0.5356612315916465</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>2.331152510247335</v>
+        <v>0.5113957683062438</v>
       </c>
       <c r="Q18">
-        <v>1.855530636292031</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>2.209239182654613</v>
+      </c>
+      <c r="S18">
+        <v>1.870128475336628</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.809083753684746</v>
+        <v>1.857199408556056</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.04236144192390867</v>
+        <v>0.04241864551910624</v>
       </c>
       <c r="E19">
-        <v>0.6147234236748957</v>
+        <v>0.562201639023165</v>
       </c>
       <c r="F19">
-        <v>0.7251406194597223</v>
+        <v>0.7272933482630037</v>
       </c>
       <c r="G19">
-        <v>0.6130205156270421</v>
+        <v>0.634654418791456</v>
       </c>
       <c r="H19">
-        <v>0.02617237337513245</v>
+        <v>0.02617903177017666</v>
       </c>
       <c r="I19">
-        <v>0.008980497468572324</v>
+        <v>0.006536878018387426</v>
       </c>
       <c r="J19">
-        <v>0.3252766150531841</v>
+        <v>0.3613129841540257</v>
       </c>
       <c r="K19">
-        <v>0.281902965069925</v>
+        <v>0.2529961930058917</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1138610002583036</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.07788021768192444</v>
       </c>
       <c r="N19">
-        <v>0.671437206050939</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>2.141026228792924</v>
+        <v>0.6520012019863657</v>
       </c>
       <c r="Q19">
-        <v>1.934510788148316</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>2.050688267278929</v>
+      </c>
+      <c r="S19">
+        <v>1.944703892486984</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.09407815463311</v>
+        <v>2.109066257189056</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.04017155632154612</v>
+        <v>0.04086717220914693</v>
       </c>
       <c r="E20">
-        <v>0.4879458377970067</v>
+        <v>0.4479769339803141</v>
       </c>
       <c r="F20">
-        <v>0.7967777973258876</v>
+        <v>0.7916364118950128</v>
       </c>
       <c r="G20">
-        <v>0.6842812062044032</v>
+        <v>0.7155728002136215</v>
       </c>
       <c r="H20">
-        <v>0.0002402037001845159</v>
+        <v>0.0004606981469184035</v>
       </c>
       <c r="I20">
-        <v>0.007810961522611848</v>
+        <v>0.005772409453783212</v>
       </c>
       <c r="J20">
-        <v>0.3588943297148859</v>
+        <v>0.3746505531055249</v>
       </c>
       <c r="K20">
-        <v>0.260442432437169</v>
+        <v>0.2371055695280297</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1095106802940125</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.07087794108231016</v>
       </c>
       <c r="N20">
-        <v>0.9391205930544686</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>1.935785985020146</v>
+        <v>0.9281511541315126</v>
       </c>
       <c r="Q20">
-        <v>2.156063282110949</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>1.890079859047603</v>
+      </c>
+      <c r="S20">
+        <v>2.141670890942123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.366680063999752</v>
+        <v>2.365266716813437</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.044993843867843</v>
+        <v>0.04822434477120652</v>
       </c>
       <c r="E21">
-        <v>0.5090838798446526</v>
+        <v>0.4619805419523288</v>
       </c>
       <c r="F21">
-        <v>0.900840596141407</v>
+        <v>0.8659285258555514</v>
       </c>
       <c r="G21">
-        <v>0.7777719272476133</v>
+        <v>0.9052234672357145</v>
       </c>
       <c r="H21">
-        <v>0.0006225547077766125</v>
+        <v>0.0009725468304564444</v>
       </c>
       <c r="I21">
-        <v>0.006371762157346694</v>
+        <v>0.004854729342060438</v>
       </c>
       <c r="J21">
-        <v>0.3982604148614257</v>
+        <v>0.2870499448803372</v>
       </c>
       <c r="K21">
-        <v>0.2463862077840382</v>
+        <v>0.2259193126765249</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1086910997717734</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.06493564190524337</v>
       </c>
       <c r="N21">
-        <v>1.075588479039737</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>2.040637478233037</v>
+        <v>1.055613851347744</v>
       </c>
       <c r="Q21">
-        <v>2.437022087771709</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>2.016414380988635</v>
+      </c>
+      <c r="S21">
+        <v>2.322038351511253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.540308088638596</v>
+        <v>2.528294196701552</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04828508908354223</v>
+        <v>0.05339837276570591</v>
       </c>
       <c r="E22">
-        <v>0.5269778089894999</v>
+        <v>0.4743993297597129</v>
       </c>
       <c r="F22">
-        <v>0.9683756165076574</v>
+        <v>0.9119364232387568</v>
       </c>
       <c r="G22">
-        <v>0.8381762990577926</v>
+        <v>1.039053183724434</v>
       </c>
       <c r="H22">
-        <v>0.001107335687776323</v>
+        <v>0.001499770229972497</v>
       </c>
       <c r="I22">
-        <v>0.005257117297072789</v>
+        <v>0.003978822345044541</v>
       </c>
       <c r="J22">
-        <v>0.423697010820419</v>
+        <v>0.2318688991905589</v>
       </c>
       <c r="K22">
-        <v>0.2378101391734928</v>
+        <v>0.2191448230652799</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1086030316069522</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.06142585607710016</v>
       </c>
       <c r="N22">
-        <v>1.15054898945786</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>2.114371947365981</v>
+        <v>1.12343652862873</v>
       </c>
       <c r="Q22">
-        <v>2.618548457431842</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>2.103880604369607</v>
+      </c>
+      <c r="S22">
+        <v>2.431009205790843</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.453921032901519</v>
+        <v>2.448098057385266</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04647661856353835</v>
+        <v>0.0503051057643944</v>
       </c>
       <c r="E23">
-        <v>0.5159676876975539</v>
+        <v>0.467425203981108</v>
       </c>
       <c r="F23">
-        <v>0.9328330884385423</v>
+        <v>0.8909264564616137</v>
       </c>
       <c r="G23">
-        <v>0.8064916659439518</v>
+        <v>0.9568734593340338</v>
       </c>
       <c r="H23">
-        <v>0.0008346364048285038</v>
+        <v>0.001211014644556641</v>
       </c>
       <c r="I23">
-        <v>0.005497546911954032</v>
+        <v>0.004035088866904957</v>
       </c>
       <c r="J23">
-        <v>0.4103990802310591</v>
+        <v>0.2723828511719688</v>
       </c>
       <c r="K23">
-        <v>0.2421506195328469</v>
+        <v>0.222479291636791</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1084623679377437</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.06324483107103962</v>
       </c>
       <c r="N23">
-        <v>1.108333311647328</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>2.068383833537496</v>
+        <v>1.086540684183944</v>
       </c>
       <c r="Q23">
-        <v>2.52342210861255</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>2.049966440000759</v>
+      </c>
+      <c r="S23">
+        <v>2.384861921676048</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.115285960625897</v>
+        <v>2.127416539794126</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03974484819590174</v>
+        <v>0.04044346889332218</v>
       </c>
       <c r="E24">
-        <v>0.4769078949464216</v>
+        <v>0.4379535836896125</v>
       </c>
       <c r="F24">
-        <v>0.7992119777290441</v>
+        <v>0.7940253094103866</v>
       </c>
       <c r="G24">
-        <v>0.6871801627406029</v>
+        <v>0.7173783682337955</v>
       </c>
       <c r="H24">
-        <v>0.0001406448006804339</v>
+        <v>0.0003731067524351817</v>
       </c>
       <c r="I24">
-        <v>0.007219485400249859</v>
+        <v>0.005100654267645943</v>
       </c>
       <c r="J24">
-        <v>0.3604810990410527</v>
+        <v>0.3772349072030607</v>
       </c>
       <c r="K24">
-        <v>0.259691411662363</v>
+        <v>0.2365266426697765</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1092641322094243</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.0707009311135387</v>
       </c>
       <c r="N24">
-        <v>0.9523575555014077</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>1.906887580070759</v>
+        <v>0.9425168815942015</v>
       </c>
       <c r="Q24">
-        <v>2.165524642983485</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>1.864394311323167</v>
+      </c>
+      <c r="S24">
+        <v>2.150967208090975</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.747511180313097</v>
+        <v>1.767526582082468</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03254427847573993</v>
+        <v>0.03283589199823211</v>
       </c>
       <c r="E25">
-        <v>0.4351682498220413</v>
+        <v>0.395927632459653</v>
       </c>
       <c r="F25">
-        <v>0.6586470554499186</v>
+        <v>0.658838655842203</v>
       </c>
       <c r="G25">
-        <v>0.5615884797131656</v>
+        <v>0.5778647058230177</v>
       </c>
       <c r="H25">
-        <v>5.322611783442621E-05</v>
+        <v>1.824604349276449E-06</v>
       </c>
       <c r="I25">
-        <v>0.009637352601346905</v>
+        <v>0.006735530631262421</v>
       </c>
       <c r="J25">
-        <v>0.3084544885592919</v>
+        <v>0.3430874305658591</v>
       </c>
       <c r="K25">
-        <v>0.2801630951294989</v>
+        <v>0.2536136662824076</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1120956765085941</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.08005793180340159</v>
       </c>
       <c r="N25">
-        <v>0.7846099466163139</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>1.73643265530518</v>
+        <v>0.7733629561275279</v>
       </c>
       <c r="Q25">
-        <v>1.789828065863219</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>1.679817217099455</v>
+      </c>
+      <c r="S25">
+        <v>1.79312527131313</v>
       </c>
     </row>
   </sheetData>
